--- a/Outputs/3. Prosumer percentage/Output Files/90/Output_11_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/90/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1348473.485896003</v>
+        <v>1337468.025293775</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18664887.12081544</v>
+        <v>18746588.30087679</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166495.824265377</v>
+        <v>1928321.613375494</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6700547.773089025</v>
+        <v>6750100.988480329</v>
       </c>
     </row>
     <row r="11">
@@ -749,64 +749,64 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>24.76484596498758</v>
+      </c>
+      <c r="V3" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="Y3" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>157.3446449764284</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -907,10 +907,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>252.7907434992083</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>252.7907434992083</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>252.7907434992083</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="D6" t="n">
-        <v>16.6401733400484</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>154.4978975020958</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="V7" t="n">
-        <v>252.7907434992083</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1141,16 +1141,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>69.59869943349202</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>133.9295731471389</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>46.70501460269041</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1356,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>208.5955951170842</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>20.22283124835637</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>82.90314704719353</v>
       </c>
       <c r="T11" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>51.44473333066808</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1539,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.1924286780001</v>
       </c>
       <c r="H13" t="n">
-        <v>138.7844152484321</v>
+        <v>90.61615457096842</v>
       </c>
       <c r="I13" t="n">
         <v>86.68250837722755</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>21.73072221541245</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T13" t="n">
         <v>239.1884404287796</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H14" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>335.0168321317745</v>
+        <v>370.4092161105462</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>19.59161449032088</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>161.4284329972273</v>
@@ -1821,13 +1821,13 @@
         <v>239.1884404287796</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3606783057509</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>167.6907763732806</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1897,7 +1897,7 @@
         <v>82.90314704719353</v>
       </c>
       <c r="T17" t="n">
-        <v>214.7935231211464</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U17" t="n">
         <v>255.6996702193238</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446589</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>44.83806430259038</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>131.2716438548354</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.1924286780001</v>
       </c>
       <c r="H19" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>86.68250837722755</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6996702193241</v>
+        <v>255.6996702193232</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2244,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>21.98589436268106</v>
+        <v>83.88119949835793</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2259,7 +2259,7 @@
         <v>138.7844152484321</v>
       </c>
       <c r="I22" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>161.4284329972273</v>
@@ -2295,7 +2295,7 @@
         <v>239.1884404287796</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.90314704719353</v>
+        <v>82.90314704719442</v>
       </c>
       <c r="T23" t="n">
-        <v>214.7935231211464</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6996702193241</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2490,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H25" t="n">
         <v>138.7844152484321</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>161.4284329972273</v>
+        <v>13.00243593535807</v>
       </c>
       <c r="T25" t="n">
         <v>239.1884404287796</v>
       </c>
       <c r="U25" t="n">
-        <v>24.49471789618526</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2715,22 +2715,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>53.66246879523606</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.1924286780001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I28" t="n">
         <v>86.68250837722755</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>161.4284329972273</v>
@@ -2775,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>218.2289054105502</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2970,7 +2970,7 @@
         <v>138.7844152484321</v>
       </c>
       <c r="I31" t="n">
-        <v>86.68250837722755</v>
+        <v>21.23029186842965</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U31" t="n">
         <v>277.3606783057509</v>
       </c>
       <c r="V31" t="n">
-        <v>129.5185384963084</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3085,7 +3085,7 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6996702193238</v>
+        <v>255.6996702193241</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3195,16 +3195,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>60.47325455071466</v>
       </c>
       <c r="G34" t="n">
         <v>164.1924286780001</v>
       </c>
       <c r="H34" t="n">
-        <v>84.90944086977026</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I34" t="n">
         <v>86.68250837722755</v>
@@ -3246,7 +3246,7 @@
         <v>277.3606783057509</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.9031470471935</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T35" t="n">
         <v>214.7935231211468</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6996702193241</v>
+        <v>255.6996702193232</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>73.36376852360603</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.959704450847008</v>
       </c>
       <c r="H37" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I37" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>399.3995456585952</v>
       </c>
       <c r="H38" t="n">
-        <v>285.712243033855</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446589</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3672,7 +3672,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>111.6019139104375</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.1924286780001</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>161.4284329972273</v>
@@ -3720,10 +3720,10 @@
         <v>277.3606783057509</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>162.4339778567416</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>97.58602165205967</v>
       </c>
       <c r="G41" t="n">
         <v>399.3995456585952</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T41" t="n">
         <v>214.7935231211468</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>268.2281010875299</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3912,7 +3912,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H43" t="n">
         <v>138.7844152484321</v>
@@ -3963,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>204.0307406410786</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>75.65334356528628</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>291.3891718153487</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>399.3995456585952</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T44" t="n">
-        <v>214.7935231211468</v>
+        <v>83.65082918837589</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4152,7 +4152,7 @@
         <v>164.1924286780001</v>
       </c>
       <c r="H46" t="n">
-        <v>138.7844152484321</v>
+        <v>108.7373071127283</v>
       </c>
       <c r="I46" t="n">
         <v>86.68250837722755</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>161.4284329972273</v>
@@ -4191,10 +4191,10 @@
         <v>239.1884404287796</v>
       </c>
       <c r="U46" t="n">
-        <v>139.1966419362376</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4324,31 +4324,31 @@
         <v>2.249304810625574</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625575</v>
+        <v>2.249304810625574</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>2.249304810625574</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>2.249304810625574</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L2" t="n">
-        <v>2.249304810625575</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="M2" t="n">
-        <v>2.249304810625575</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="N2" t="n">
-        <v>30.08445184211706</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O2" t="n">
-        <v>56.79494646829576</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P2" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q2" t="n">
         <v>112.4652405312787</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.66461400032987</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="C3" t="n">
-        <v>55.66461400032987</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="D3" t="n">
-        <v>55.66461400032987</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E3" t="n">
-        <v>55.66461400032987</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F3" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G3" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H3" t="n">
         <v>2.249304810625575</v>
@@ -4415,46 +4415,46 @@
         <v>37.5310948040289</v>
       </c>
       <c r="L3" t="n">
-        <v>65.36624183552038</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="M3" t="n">
-        <v>65.36624183552038</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N3" t="n">
-        <v>93.20138886701187</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O3" t="n">
-        <v>93.20138886701187</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P3" t="n">
-        <v>112.4652405312787</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="Q3" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="R3" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U3" t="n">
-        <v>55.66461400032987</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="V3" t="n">
-        <v>55.66461400032987</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="W3" t="n">
-        <v>55.66461400032987</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="X3" t="n">
-        <v>55.66461400032987</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.66461400032987</v>
+        <v>2.249304810625575</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="D4" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="I4" t="n">
         <v>2.249304810625575</v>
@@ -4491,49 +4491,49 @@
         <v>2.249304810625575</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L4" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="M4" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="N4" t="n">
-        <v>30.08445184211706</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="O4" t="n">
-        <v>56.79494646829576</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q4" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U4" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V4" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W4" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>731.0343675964173</v>
+        <v>87.68081948359844</v>
       </c>
       <c r="C5" t="n">
-        <v>572.1003827717421</v>
+        <v>64.82049353730262</v>
       </c>
       <c r="D5" t="n">
-        <v>552.8481659971465</v>
+        <v>45.56827676270697</v>
       </c>
       <c r="E5" t="n">
-        <v>530.9116301854081</v>
+        <v>23.63174095096858</v>
       </c>
       <c r="F5" t="n">
-        <v>275.5674448326723</v>
+        <v>2.547963180772882</v>
       </c>
       <c r="G5" t="n">
-        <v>20.22325947993667</v>
+        <v>2.249304810625574</v>
       </c>
       <c r="H5" t="n">
-        <v>20.22325947993667</v>
+        <v>2.249304810625574</v>
       </c>
       <c r="I5" t="n">
-        <v>20.22325947993667</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="J5" t="n">
-        <v>20.22325947993667</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K5" t="n">
-        <v>270.4860955441529</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L5" t="n">
-        <v>510.6373018684008</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="M5" t="n">
-        <v>510.6373018684008</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N5" t="n">
-        <v>510.6373018684008</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O5" t="n">
-        <v>760.900137932617</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.162973996833</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q5" t="n">
-        <v>1011.162973996833</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R5" t="n">
-        <v>1011.162973996833</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="S5" t="n">
-        <v>1011.162973996833</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T5" t="n">
-        <v>1011.162973996833</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U5" t="n">
-        <v>1011.162973996833</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V5" t="n">
-        <v>1011.162973996833</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="W5" t="n">
-        <v>755.8187886440976</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="X5" t="n">
-        <v>748.1391938522489</v>
+        <v>104.78564573943</v>
       </c>
       <c r="Y5" t="n">
-        <v>746.8423278475433</v>
+        <v>103.4887797347244</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406.6692176086199</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C6" t="n">
-        <v>289.1633141261246</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="D6" t="n">
-        <v>272.3550582270859</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6531245000231</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="F6" t="n">
-        <v>167.6531245000231</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G6" t="n">
-        <v>73.59935271762708</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H6" t="n">
-        <v>20.22325947993667</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="I6" t="n">
-        <v>27.66990244184851</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="J6" t="n">
-        <v>260.3744658041845</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K6" t="n">
-        <v>260.3744658041845</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L6" t="n">
-        <v>260.3744658041845</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="M6" t="n">
-        <v>260.3744658041845</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="N6" t="n">
-        <v>260.3744658041845</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="O6" t="n">
-        <v>510.6373018684008</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P6" t="n">
-        <v>760.900137932617</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q6" t="n">
-        <v>1011.162973996833</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R6" t="n">
-        <v>1011.162973996833</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="S6" t="n">
-        <v>929.8387265580877</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T6" t="n">
-        <v>787.958790855766</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U6" t="n">
-        <v>603.1905947754027</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V6" t="n">
-        <v>603.1905947754027</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="W6" t="n">
-        <v>406.6692176086199</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="X6" t="n">
-        <v>406.6692176086199</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y6" t="n">
-        <v>406.6692176086199</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>276.05031006501</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C7" t="n">
-        <v>276.05031006501</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D7" t="n">
-        <v>276.05031006501</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E7" t="n">
-        <v>276.05031006501</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F7" t="n">
-        <v>119.9918277396607</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G7" t="n">
-        <v>119.9918277396607</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H7" t="n">
-        <v>119.9918277396607</v>
+        <v>30.6496180761</v>
       </c>
       <c r="I7" t="n">
-        <v>20.22325947993667</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="J7" t="n">
-        <v>77.71458770409468</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K7" t="n">
-        <v>77.71458770409468</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L7" t="n">
-        <v>133.3743355634226</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M7" t="n">
-        <v>383.6371716276388</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="N7" t="n">
-        <v>633.9000076918551</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O7" t="n">
-        <v>884.1628437560713</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P7" t="n">
-        <v>884.1628437560713</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q7" t="n">
-        <v>1011.162973996833</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>964.1243606840063</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="S7" t="n">
-        <v>964.1243606840063</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T7" t="n">
-        <v>964.1243606840063</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U7" t="n">
-        <v>964.1243606840063</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="V7" t="n">
-        <v>708.7801753312706</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="W7" t="n">
-        <v>708.7801753312706</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X7" t="n">
-        <v>466.2162787770757</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.2162787770757</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>561.2807824307324</v>
+        <v>1716.447907866797</v>
       </c>
       <c r="C8" t="n">
-        <v>134.3800524440326</v>
+        <v>1289.547177880097</v>
       </c>
       <c r="D8" t="n">
-        <v>115.1278356694369</v>
+        <v>1270.294961105501</v>
       </c>
       <c r="E8" t="n">
-        <v>93.19129985769854</v>
+        <v>844.318021253359</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H8" t="n">
         <v>71.80886371735554</v>
@@ -4807,25 +4807,25 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>475.2419029331441</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L8" t="n">
-        <v>475.2419029331441</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M8" t="n">
-        <v>932.027809635875</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N8" t="n">
-        <v>1388.813716338606</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O8" t="n">
-        <v>1388.813716338606</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4837,19 +4837,19 @@
         <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1482.877419510889</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V8" t="n">
-        <v>1125.388004637139</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W8" t="n">
-        <v>990.1056075188168</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X8" t="n">
-        <v>982.4260127269681</v>
+        <v>1733.552734122628</v>
       </c>
       <c r="Y8" t="n">
-        <v>981.1291467222625</v>
+        <v>1732.255868117923</v>
       </c>
     </row>
     <row r="9">
@@ -4892,13 +4892,13 @@
         <v>772.8420314050604</v>
       </c>
       <c r="M9" t="n">
+        <v>772.8420314050604</v>
+      </c>
+      <c r="N9" t="n">
+        <v>772.8420314050604</v>
+      </c>
+      <c r="O9" t="n">
         <v>850.0084995511718</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1306.794406253903</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1306.794406253903</v>
       </c>
       <c r="P9" t="n">
         <v>1306.794406253903</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>375.0307363920342</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="C10" t="n">
-        <v>375.0307363920342</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="D10" t="n">
-        <v>375.0307363920342</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="E10" t="n">
-        <v>375.0307363920342</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F10" t="n">
-        <v>203.1689621665946</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
         <v>36.91199246082674</v>
@@ -4965,49 +4965,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N10" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1742.234349487134</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T10" t="n">
-        <v>1628.287793133512</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.103344633816</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V10" t="n">
-        <v>1066.391877241845</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W10" t="n">
-        <v>791.5394734143579</v>
+        <v>1071.862091028187</v>
       </c>
       <c r="X10" t="n">
-        <v>791.5394734143579</v>
+        <v>829.2981944739919</v>
       </c>
       <c r="Y10" t="n">
-        <v>565.1967051040999</v>
+        <v>618.5955731436038</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1191.341122821861</v>
+        <v>1218.844081560572</v>
       </c>
       <c r="C11" t="n">
-        <v>764.440392835161</v>
+        <v>1218.844081560572</v>
       </c>
       <c r="D11" t="n">
-        <v>341.1477720201613</v>
+        <v>1198.416979289505</v>
       </c>
       <c r="E11" t="n">
-        <v>341.1477720201613</v>
+        <v>772.4400394373624</v>
       </c>
       <c r="F11" t="n">
-        <v>341.1477720201613</v>
+        <v>347.3158576267627</v>
       </c>
       <c r="G11" t="n">
-        <v>341.1477720201613</v>
+        <v>347.3158576267627</v>
       </c>
       <c r="H11" t="n">
-        <v>52.54954673343935</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="I11" t="n">
-        <v>52.54954673343935</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="J11" t="n">
-        <v>98.72079593693901</v>
+        <v>496.6181002511666</v>
       </c>
       <c r="K11" t="n">
-        <v>176.1645390463083</v>
+        <v>574.0618433605359</v>
       </c>
       <c r="L11" t="n">
-        <v>826.4651798726202</v>
+        <v>1300.692543568541</v>
       </c>
       <c r="M11" t="n">
-        <v>1476.765820698932</v>
+        <v>2027.323243776545</v>
       </c>
       <c r="N11" t="n">
-        <v>2127.066461525244</v>
+        <v>2160.110207631612</v>
       </c>
       <c r="O11" t="n">
-        <v>2303.776426036723</v>
+        <v>2272.570457281811</v>
       </c>
       <c r="P11" t="n">
-        <v>2394.152234613756</v>
+        <v>2362.946265858845</v>
       </c>
       <c r="Q11" t="n">
-        <v>2454.19263174025</v>
+        <v>2914.835570348074</v>
       </c>
       <c r="R11" t="n">
-        <v>2627.477336671967</v>
+        <v>2935.88161700204</v>
       </c>
       <c r="S11" t="n">
-        <v>2543.736784099045</v>
+        <v>2852.141064429117</v>
       </c>
       <c r="T11" t="n">
-        <v>2326.773629431219</v>
+        <v>2852.141064429117</v>
       </c>
       <c r="U11" t="n">
-        <v>2068.491134260185</v>
+        <v>2852.141064429117</v>
       </c>
       <c r="V11" t="n">
-        <v>2068.491134260185</v>
+        <v>2852.141064429117</v>
       </c>
       <c r="W11" t="n">
-        <v>2068.491134260185</v>
+        <v>2455.749714729464</v>
       </c>
       <c r="X11" t="n">
-        <v>2016.5267571585</v>
+        <v>2044.029715897212</v>
       </c>
       <c r="Y11" t="n">
-        <v>1611.189487113391</v>
+        <v>1638.692445852102</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.5112820992194</v>
+        <v>620.6793677058209</v>
       </c>
       <c r="C12" t="n">
-        <v>497.0053786167242</v>
+        <v>503.1734642233257</v>
       </c>
       <c r="D12" t="n">
-        <v>393.1654201320093</v>
+        <v>399.3335057386108</v>
       </c>
       <c r="E12" t="n">
-        <v>288.4634864049465</v>
+        <v>294.631572011548</v>
       </c>
       <c r="F12" t="n">
-        <v>194.8176560878507</v>
+        <v>200.9857416944521</v>
       </c>
       <c r="G12" t="n">
-        <v>101.2481971827279</v>
+        <v>107.4162827893293</v>
       </c>
       <c r="H12" t="n">
-        <v>52.54954673343935</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="I12" t="n">
-        <v>76.33916842548948</v>
+        <v>59.04994818767909</v>
       </c>
       <c r="J12" t="n">
-        <v>392.8830404854511</v>
+        <v>108.3084564118586</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3574101888589</v>
+        <v>775.4429941786061</v>
       </c>
       <c r="L12" t="n">
-        <v>528.1323357475674</v>
+        <v>856.2179197373144</v>
       </c>
       <c r="M12" t="n">
-        <v>1178.432976573879</v>
+        <v>953.6239390352166</v>
       </c>
       <c r="N12" t="n">
-        <v>1280.75844816075</v>
+        <v>1055.949410622087</v>
       </c>
       <c r="O12" t="n">
-        <v>1370.75554703942</v>
+        <v>1145.946509500757</v>
       </c>
       <c r="P12" t="n">
-        <v>1439.844529909411</v>
+        <v>1215.035492370749</v>
       </c>
       <c r="Q12" t="n">
-        <v>1733.604737507429</v>
+        <v>1739.77282311403</v>
       </c>
       <c r="R12" t="n">
-        <v>1845.095538917461</v>
+        <v>1851.263624524063</v>
       </c>
       <c r="S12" t="n">
-        <v>1772.767190756137</v>
+        <v>1778.935276362739</v>
       </c>
       <c r="T12" t="n">
-        <v>1632.839375817912</v>
+        <v>1639.007461424514</v>
       </c>
       <c r="U12" t="n">
-        <v>1448.103042426843</v>
+        <v>1454.271128033445</v>
       </c>
       <c r="V12" t="n">
-        <v>1243.12990356611</v>
+        <v>1249.297989172711</v>
       </c>
       <c r="W12" t="n">
-        <v>1046.608526399327</v>
+        <v>1052.776612005928</v>
       </c>
       <c r="X12" t="n">
-        <v>883.1311801659898</v>
+        <v>889.2992657725913</v>
       </c>
       <c r="Y12" t="n">
-        <v>743.4382915192822</v>
+        <v>749.6063771258837</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1119.504168157571</v>
+        <v>733.1831076525339</v>
       </c>
       <c r="C13" t="n">
-        <v>947.5316050364868</v>
+        <v>733.1831076525339</v>
       </c>
       <c r="D13" t="n">
-        <v>784.2148321632575</v>
+        <v>569.8663347793046</v>
       </c>
       <c r="E13" t="n">
-        <v>618.006626316111</v>
+        <v>403.6581289321581</v>
       </c>
       <c r="F13" t="n">
-        <v>446.1448520906715</v>
+        <v>403.6581289321581</v>
       </c>
       <c r="G13" t="n">
-        <v>280.2939140320855</v>
+        <v>237.8071908735721</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1076360033662</v>
+        <v>146.2757216099676</v>
       </c>
       <c r="I13" t="n">
-        <v>52.54954673343935</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="J13" t="n">
-        <v>138.1760543079877</v>
+        <v>144.3441399145888</v>
       </c>
       <c r="K13" t="n">
-        <v>410.9383979720973</v>
+        <v>417.1064835786984</v>
       </c>
       <c r="L13" t="n">
-        <v>824.7922715484106</v>
+        <v>830.9603571550117</v>
       </c>
       <c r="M13" t="n">
-        <v>1278.358791417565</v>
+        <v>1284.526877024166</v>
       </c>
       <c r="N13" t="n">
-        <v>1716.747752982184</v>
+        <v>1722.915838588786</v>
       </c>
       <c r="O13" t="n">
-        <v>2128.424533910869</v>
+        <v>2134.592619517471</v>
       </c>
       <c r="P13" t="n">
-        <v>2467.154185086671</v>
+        <v>2473.322270693273</v>
       </c>
       <c r="Q13" t="n">
-        <v>2627.477336671967</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="R13" t="n">
-        <v>2598.695382695155</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="S13" t="n">
-        <v>2576.745158235143</v>
+        <v>2470.586399049047</v>
       </c>
       <c r="T13" t="n">
-        <v>2335.140672953547</v>
+        <v>2228.981913767451</v>
       </c>
       <c r="U13" t="n">
-        <v>2335.140672953547</v>
+        <v>1948.81961244851</v>
       </c>
       <c r="V13" t="n">
-        <v>2053.429205561576</v>
+        <v>1667.108145056539</v>
       </c>
       <c r="W13" t="n">
-        <v>1778.576801734089</v>
+        <v>1392.255741229052</v>
       </c>
       <c r="X13" t="n">
-        <v>1536.012905179894</v>
+        <v>1149.691844674858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1309.670136869637</v>
+        <v>923.3490763645996</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1193.172683817461</v>
+        <v>1736.545259321414</v>
       </c>
       <c r="C14" t="n">
-        <v>766.271953830761</v>
+        <v>1736.545259321414</v>
       </c>
       <c r="D14" t="n">
-        <v>766.271953830761</v>
+        <v>1313.252638506415</v>
       </c>
       <c r="E14" t="n">
-        <v>766.271953830761</v>
+        <v>887.2756986542721</v>
       </c>
       <c r="F14" t="n">
-        <v>341.1477720201613</v>
+        <v>462.1515168436723</v>
       </c>
       <c r="G14" t="n">
-        <v>341.1477720201613</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="H14" t="n">
-        <v>52.54954673343935</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="I14" t="n">
-        <v>52.54954673343935</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="J14" t="n">
-        <v>98.72079593693901</v>
+        <v>496.6181002511666</v>
       </c>
       <c r="K14" t="n">
-        <v>383.7209433869997</v>
+        <v>574.0618433605359</v>
       </c>
       <c r="L14" t="n">
-        <v>1034.021584213312</v>
+        <v>1300.692543568541</v>
       </c>
       <c r="M14" t="n">
-        <v>1684.322225039624</v>
+        <v>1419.413981175595</v>
       </c>
       <c r="N14" t="n">
-        <v>1805.714443488162</v>
+        <v>1540.806199624133</v>
       </c>
       <c r="O14" t="n">
-        <v>2456.015084314474</v>
+        <v>2120.33179900406</v>
       </c>
       <c r="P14" t="n">
-        <v>2546.390892891507</v>
+        <v>2210.707607581094</v>
       </c>
       <c r="Q14" t="n">
-        <v>2606.431290018001</v>
+        <v>2762.596912070323</v>
       </c>
       <c r="R14" t="n">
-        <v>2627.477336671967</v>
+        <v>2935.88161700204</v>
       </c>
       <c r="S14" t="n">
-        <v>2543.736784099045</v>
+        <v>2935.88161700204</v>
       </c>
       <c r="T14" t="n">
-        <v>2543.736784099045</v>
+        <v>2935.88161700204</v>
       </c>
       <c r="U14" t="n">
-        <v>2285.454288928011</v>
+        <v>2935.88161700204</v>
       </c>
       <c r="V14" t="n">
-        <v>1927.96487405426</v>
+        <v>2935.88161700204</v>
       </c>
       <c r="W14" t="n">
-        <v>1531.573524354607</v>
+        <v>2935.88161700204</v>
       </c>
       <c r="X14" t="n">
-        <v>1193.172683817461</v>
+        <v>2561.730893658054</v>
       </c>
       <c r="Y14" t="n">
-        <v>1193.172683817461</v>
+        <v>2156.393623612944</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1396.893079853726</v>
+        <v>620.6793677058209</v>
       </c>
       <c r="C15" t="n">
-        <v>1279.387176371231</v>
+        <v>503.1734642233257</v>
       </c>
       <c r="D15" t="n">
-        <v>1175.547217886516</v>
+        <v>399.3335057386108</v>
       </c>
       <c r="E15" t="n">
-        <v>1070.845284159453</v>
+        <v>294.631572011548</v>
       </c>
       <c r="F15" t="n">
-        <v>977.199453842357</v>
+        <v>200.9857416944521</v>
       </c>
       <c r="G15" t="n">
-        <v>883.6299949372342</v>
+        <v>107.4162827893293</v>
       </c>
       <c r="H15" t="n">
-        <v>834.9313444879457</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="I15" t="n">
-        <v>835.2636603355839</v>
+        <v>82.50725403209093</v>
       </c>
       <c r="J15" t="n">
-        <v>1151.807532395546</v>
+        <v>399.0511260920526</v>
       </c>
       <c r="K15" t="n">
-        <v>1206.281902098953</v>
+        <v>775.4429941786061</v>
       </c>
       <c r="L15" t="n">
-        <v>1287.056827657662</v>
+        <v>856.2179197373144</v>
       </c>
       <c r="M15" t="n">
-        <v>1384.462846955564</v>
+        <v>953.6239390352166</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.788318542434</v>
+        <v>1055.949410622087</v>
       </c>
       <c r="O15" t="n">
-        <v>1922.160221648661</v>
+        <v>1145.946509500757</v>
       </c>
       <c r="P15" t="n">
-        <v>1991.249204518653</v>
+        <v>1215.035492370749</v>
       </c>
       <c r="Q15" t="n">
-        <v>2515.986535261934</v>
+        <v>1739.77282311403</v>
       </c>
       <c r="R15" t="n">
-        <v>2627.477336671967</v>
+        <v>1851.263624524063</v>
       </c>
       <c r="S15" t="n">
-        <v>2555.148988510643</v>
+        <v>1778.935276362739</v>
       </c>
       <c r="T15" t="n">
-        <v>2415.221173572419</v>
+        <v>1639.007461424514</v>
       </c>
       <c r="U15" t="n">
-        <v>2230.48484018135</v>
+        <v>1454.271128033445</v>
       </c>
       <c r="V15" t="n">
-        <v>2025.511701320616</v>
+        <v>1249.297989172711</v>
       </c>
       <c r="W15" t="n">
-        <v>1828.990324153833</v>
+        <v>1052.776612005928</v>
       </c>
       <c r="X15" t="n">
-        <v>1665.512977920496</v>
+        <v>889.2992657725913</v>
       </c>
       <c r="Y15" t="n">
-        <v>1525.820089273788</v>
+        <v>749.6063771258837</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.085471896607</v>
+        <v>1125.672253764172</v>
       </c>
       <c r="C16" t="n">
-        <v>801.112908775523</v>
+        <v>953.6996906430883</v>
       </c>
       <c r="D16" t="n">
-        <v>637.7961359022937</v>
+        <v>790.382917769859</v>
       </c>
       <c r="E16" t="n">
-        <v>618.006626316111</v>
+        <v>624.1747119227125</v>
       </c>
       <c r="F16" t="n">
-        <v>446.1448520906715</v>
+        <v>452.312937697273</v>
       </c>
       <c r="G16" t="n">
-        <v>280.2939140320855</v>
+        <v>286.461999638687</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1076360033662</v>
+        <v>146.2757216099676</v>
       </c>
       <c r="I16" t="n">
-        <v>52.54954673343935</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="J16" t="n">
-        <v>138.1760543079872</v>
+        <v>144.3441399145888</v>
       </c>
       <c r="K16" t="n">
-        <v>410.9383979720968</v>
+        <v>417.1064835786984</v>
       </c>
       <c r="L16" t="n">
-        <v>824.7922715484102</v>
+        <v>830.9603571550117</v>
       </c>
       <c r="M16" t="n">
-        <v>1278.358791417565</v>
+        <v>1284.526877024166</v>
       </c>
       <c r="N16" t="n">
-        <v>1716.747752982184</v>
+        <v>1722.915838588786</v>
       </c>
       <c r="O16" t="n">
-        <v>2128.424533910869</v>
+        <v>2134.592619517471</v>
       </c>
       <c r="P16" t="n">
-        <v>2467.154185086671</v>
+        <v>2473.322270693273</v>
       </c>
       <c r="Q16" t="n">
-        <v>2627.477336671967</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="R16" t="n">
-        <v>2598.695382695155</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="S16" t="n">
-        <v>2435.636359465633</v>
+        <v>2470.586399049047</v>
       </c>
       <c r="T16" t="n">
-        <v>2194.031874184037</v>
+        <v>2228.981913767451</v>
       </c>
       <c r="U16" t="n">
-        <v>1913.869572865097</v>
+        <v>2228.981913767451</v>
       </c>
       <c r="V16" t="n">
-        <v>1632.158105473125</v>
+        <v>2059.597291168177</v>
       </c>
       <c r="W16" t="n">
-        <v>1632.158105473125</v>
+        <v>1784.744887340691</v>
       </c>
       <c r="X16" t="n">
-        <v>1389.594208918931</v>
+        <v>1542.180990786496</v>
       </c>
       <c r="Y16" t="n">
-        <v>1163.251440608673</v>
+        <v>1315.838222476238</v>
       </c>
     </row>
     <row r="17">
@@ -5527,10 +5527,10 @@
         <v>3596.829855531472</v>
       </c>
       <c r="N17" t="n">
-        <v>4731.379959072813</v>
+        <v>3877.894555639106</v>
       </c>
       <c r="O17" t="n">
-        <v>4843.840208723012</v>
+        <v>4872.516505202581</v>
       </c>
       <c r="P17" t="n">
         <v>4962.892313779615</v>
@@ -5554,7 +5554,7 @@
         <v>4127.503140274543</v>
       </c>
       <c r="W17" t="n">
-        <v>3731.111790574889</v>
+        <v>3731.11179057489</v>
       </c>
       <c r="X17" t="n">
         <v>3319.391791742637</v>
@@ -5594,25 +5594,25 @@
         <v>101.2118909988398</v>
       </c>
       <c r="J18" t="n">
-        <v>125.6532705892103</v>
+        <v>255.9258995079246</v>
       </c>
       <c r="K18" t="n">
-        <v>180.1276402926181</v>
+        <v>923.060437274672</v>
       </c>
       <c r="L18" t="n">
-        <v>1119.99130978132</v>
+        <v>1003.83536283338</v>
       </c>
       <c r="M18" t="n">
-        <v>1587.906426900151</v>
+        <v>1101.241382131283</v>
       </c>
       <c r="N18" t="n">
-        <v>1690.231898487021</v>
+        <v>1203.566853718153</v>
       </c>
       <c r="O18" t="n">
-        <v>1780.228997365691</v>
+        <v>1293.563952596823</v>
       </c>
       <c r="P18" t="n">
-        <v>1849.317980235683</v>
+        <v>1362.652935466815</v>
       </c>
       <c r="Q18" t="n">
         <v>1887.390266210096</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1128.570042405283</v>
+        <v>909.622119716405</v>
       </c>
       <c r="C19" t="n">
-        <v>956.5974792841987</v>
+        <v>737.649556595321</v>
       </c>
       <c r="D19" t="n">
-        <v>793.2807064109694</v>
+        <v>692.3585825523004</v>
       </c>
       <c r="E19" t="n">
-        <v>627.0725005638229</v>
+        <v>526.1503767051539</v>
       </c>
       <c r="F19" t="n">
-        <v>494.4748805084336</v>
+        <v>354.2886024797143</v>
       </c>
       <c r="G19" t="n">
-        <v>328.6239424498476</v>
+        <v>188.4376644211283</v>
       </c>
       <c r="H19" t="n">
         <v>188.4376644211283</v>
@@ -5697,28 +5697,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R19" t="n">
-        <v>2675.80736508973</v>
+        <v>2647.025411112918</v>
       </c>
       <c r="S19" t="n">
-        <v>2675.80736508973</v>
+        <v>2647.025411112918</v>
       </c>
       <c r="T19" t="n">
-        <v>2434.202879808134</v>
+        <v>2405.420925831322</v>
       </c>
       <c r="U19" t="n">
-        <v>2154.040578489194</v>
+        <v>2125.258624512382</v>
       </c>
       <c r="V19" t="n">
-        <v>1872.329111097222</v>
+        <v>1843.54715712041</v>
       </c>
       <c r="W19" t="n">
-        <v>1597.476707269735</v>
+        <v>1568.694753292923</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.912810715541</v>
+        <v>1326.130856738729</v>
       </c>
       <c r="Y19" t="n">
-        <v>1128.570042405283</v>
+        <v>1099.788088428471</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F20" t="n">
-        <v>792.911684941555</v>
+        <v>792.9116849415549</v>
       </c>
       <c r="G20" t="n">
         <v>389.4778004379234</v>
@@ -5752,28 +5752,28 @@
         <v>100.8795751512015</v>
       </c>
       <c r="J20" t="n">
-        <v>538.7800430623273</v>
+        <v>147.0508243547011</v>
       </c>
       <c r="K20" t="n">
-        <v>1367.139048934057</v>
+        <v>975.4098302264308</v>
       </c>
       <c r="L20" t="n">
-        <v>1698.72030226621</v>
+        <v>2045.036147527296</v>
       </c>
       <c r="M20" t="n">
-        <v>2858.78479156276</v>
+        <v>3205.100636823846</v>
       </c>
       <c r="N20" t="n">
-        <v>2980.177010011299</v>
+        <v>3326.492855272385</v>
       </c>
       <c r="O20" t="n">
-        <v>3974.798959574774</v>
+        <v>4321.11480483586</v>
       </c>
       <c r="P20" t="n">
-        <v>4810.653655501864</v>
+        <v>4471.043406416879</v>
       </c>
       <c r="Q20" t="n">
-        <v>4870.694052628358</v>
+        <v>5022.932710906109</v>
       </c>
       <c r="R20" t="n">
         <v>5043.978757560075</v>
@@ -5785,7 +5785,7 @@
         <v>4743.275050319327</v>
       </c>
       <c r="U20" t="n">
-        <v>4484.992555148293</v>
+        <v>4484.992555148294</v>
       </c>
       <c r="V20" t="n">
         <v>4127.503140274543</v>
@@ -5834,25 +5834,25 @@
         <v>417.7557630588014</v>
       </c>
       <c r="K21" t="n">
-        <v>472.2301327622092</v>
+        <v>1084.890300825549</v>
       </c>
       <c r="L21" t="n">
-        <v>553.0050583209177</v>
+        <v>1165.665226384257</v>
       </c>
       <c r="M21" t="n">
-        <v>675.4849780636788</v>
+        <v>1263.071245682159</v>
       </c>
       <c r="N21" t="n">
-        <v>777.810449650549</v>
+        <v>1365.39671726903</v>
       </c>
       <c r="O21" t="n">
-        <v>1780.228997365691</v>
+        <v>1455.3938161477</v>
       </c>
       <c r="P21" t="n">
-        <v>1849.317980235683</v>
+        <v>1524.482799017691</v>
       </c>
       <c r="Q21" t="n">
-        <v>1887.390266210096</v>
+        <v>1781.934765925191</v>
       </c>
       <c r="R21" t="n">
         <v>1893.425567335223</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3394.896790276167</v>
+        <v>1001.687818773953</v>
       </c>
       <c r="C22" t="n">
-        <v>3222.924227155083</v>
+        <v>829.7152556528686</v>
       </c>
       <c r="D22" t="n">
-        <v>3200.716253051365</v>
+        <v>744.9867713110929</v>
       </c>
       <c r="E22" t="n">
-        <v>3034.508047204219</v>
+        <v>578.7785654639464</v>
       </c>
       <c r="F22" t="n">
-        <v>2862.646272978779</v>
+        <v>406.9167912385068</v>
       </c>
       <c r="G22" t="n">
-        <v>2696.795334920193</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="H22" t="n">
-        <v>2556.609056891474</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I22" t="n">
-        <v>2469.050967621547</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J22" t="n">
-        <v>2554.677475196095</v>
+        <v>186.5060827257495</v>
       </c>
       <c r="K22" t="n">
-        <v>2827.439818860205</v>
+        <v>459.2684263898591</v>
       </c>
       <c r="L22" t="n">
-        <v>3241.293692436518</v>
+        <v>873.1222999661725</v>
       </c>
       <c r="M22" t="n">
-        <v>3694.860212305673</v>
+        <v>1326.688819835327</v>
       </c>
       <c r="N22" t="n">
-        <v>4133.249173870292</v>
+        <v>1765.077781399947</v>
       </c>
       <c r="O22" t="n">
-        <v>4544.925954798977</v>
+        <v>2176.754562328631</v>
       </c>
       <c r="P22" t="n">
-        <v>4883.655605974779</v>
+        <v>2515.484213504434</v>
       </c>
       <c r="Q22" t="n">
-        <v>5043.978757560075</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="R22" t="n">
-        <v>5015.196803583262</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S22" t="n">
-        <v>4852.13778035374</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T22" t="n">
-        <v>4610.533295072144</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U22" t="n">
-        <v>4610.533295072144</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V22" t="n">
-        <v>4328.821827680173</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W22" t="n">
-        <v>4053.969423852686</v>
+        <v>1434.417684040213</v>
       </c>
       <c r="X22" t="n">
-        <v>3811.405527298491</v>
+        <v>1191.853787486018</v>
       </c>
       <c r="Y22" t="n">
-        <v>3585.062758988233</v>
+        <v>1191.853787486018</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2494.206157405997</v>
+        <v>2494.206157405996</v>
       </c>
       <c r="C23" t="n">
-        <v>2067.305427419297</v>
+        <v>2067.305427419296</v>
       </c>
       <c r="D23" t="n">
-        <v>1644.012806604297</v>
+        <v>1644.012806604296</v>
       </c>
       <c r="E23" t="n">
-        <v>1218.035866752155</v>
+        <v>1218.035866752154</v>
       </c>
       <c r="F23" t="n">
-        <v>792.911684941555</v>
+        <v>792.9116849415541</v>
       </c>
       <c r="G23" t="n">
         <v>389.4778004379234</v>
@@ -5992,49 +5992,49 @@
         <v>147.0508243547011</v>
       </c>
       <c r="K23" t="n">
-        <v>224.4945674640705</v>
+        <v>975.4098302264308</v>
       </c>
       <c r="L23" t="n">
-        <v>1294.120884764936</v>
+        <v>2045.036147527296</v>
       </c>
       <c r="M23" t="n">
-        <v>2454.185374061486</v>
+        <v>2743.344452097765</v>
       </c>
       <c r="N23" t="n">
-        <v>3588.735477602827</v>
+        <v>3877.894555639106</v>
       </c>
       <c r="O23" t="n">
-        <v>4583.357427166302</v>
+        <v>4872.516505202581</v>
       </c>
       <c r="P23" t="n">
-        <v>4673.733235743335</v>
+        <v>4962.892313779615</v>
       </c>
       <c r="Q23" t="n">
-        <v>4870.694052628358</v>
+        <v>5022.932710906109</v>
       </c>
       <c r="R23" t="n">
         <v>5043.978757560075</v>
       </c>
       <c r="S23" t="n">
-        <v>4960.238204987152</v>
+        <v>4960.238204987151</v>
       </c>
       <c r="T23" t="n">
         <v>4743.275050319327</v>
       </c>
       <c r="U23" t="n">
-        <v>4484.992555148293</v>
+        <v>4484.992555148292</v>
       </c>
       <c r="V23" t="n">
-        <v>4127.503140274543</v>
+        <v>4127.503140274542</v>
       </c>
       <c r="W23" t="n">
-        <v>3731.111790574889</v>
+        <v>3731.111790574888</v>
       </c>
       <c r="X23" t="n">
-        <v>3319.391791742637</v>
+        <v>3319.391791742636</v>
       </c>
       <c r="Y23" t="n">
-        <v>2914.054521697527</v>
+        <v>2914.054521697526</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>124.6691968432516</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1105764336222</v>
+        <v>441.2130689032133</v>
       </c>
       <c r="K24" t="n">
-        <v>203.58494613703</v>
+        <v>495.6874386066211</v>
       </c>
       <c r="L24" t="n">
-        <v>1143.448615625732</v>
+        <v>576.4623641653295</v>
       </c>
       <c r="M24" t="n">
-        <v>1240.854634923634</v>
+        <v>673.8683834632317</v>
       </c>
       <c r="N24" t="n">
-        <v>1343.180106510504</v>
+        <v>776.1938550501019</v>
       </c>
       <c r="O24" t="n">
-        <v>1780.228997365691</v>
+        <v>1188.108452311917</v>
       </c>
       <c r="P24" t="n">
-        <v>1849.317980235683</v>
+        <v>1257.197435181909</v>
       </c>
       <c r="Q24" t="n">
-        <v>1887.390266210096</v>
+        <v>1781.934765925191</v>
       </c>
       <c r="R24" t="n">
         <v>1893.425567335223</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1001.983258516747</v>
+        <v>1167.834196575333</v>
       </c>
       <c r="C25" t="n">
-        <v>830.010695395663</v>
+        <v>995.8616334542489</v>
       </c>
       <c r="D25" t="n">
-        <v>666.6939225224337</v>
+        <v>832.5448605810196</v>
       </c>
       <c r="E25" t="n">
-        <v>500.4857166752872</v>
+        <v>666.3366547338732</v>
       </c>
       <c r="F25" t="n">
-        <v>328.6239424498476</v>
+        <v>494.4748805084336</v>
       </c>
       <c r="G25" t="n">
         <v>328.6239424498476</v>
@@ -6171,28 +6171,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R25" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S25" t="n">
-        <v>2483.966387883395</v>
+        <v>2662.673591417651</v>
       </c>
       <c r="T25" t="n">
-        <v>2242.3619026018</v>
+        <v>2421.069106136055</v>
       </c>
       <c r="U25" t="n">
-        <v>2217.619763312724</v>
+        <v>2140.906804817115</v>
       </c>
       <c r="V25" t="n">
-        <v>1935.908295920752</v>
+        <v>1859.195337425144</v>
       </c>
       <c r="W25" t="n">
-        <v>1661.055892093265</v>
+        <v>1584.342933597657</v>
       </c>
       <c r="X25" t="n">
-        <v>1418.491995539071</v>
+        <v>1584.342933597657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1192.149227228813</v>
+        <v>1358.000165287399</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>100.8795751512015</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0508243547012</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K26" t="n">
-        <v>224.4945674640705</v>
+        <v>616.2237861716967</v>
       </c>
       <c r="L26" t="n">
-        <v>1294.120884764936</v>
+        <v>1685.850103472562</v>
       </c>
       <c r="M26" t="n">
-        <v>2454.185374061486</v>
+        <v>2845.914592769112</v>
       </c>
       <c r="N26" t="n">
-        <v>3588.735477602827</v>
+        <v>3132.415668289052</v>
       </c>
       <c r="O26" t="n">
-        <v>4583.357427166302</v>
+        <v>4127.037617852527</v>
       </c>
       <c r="P26" t="n">
         <v>4962.892313779616</v>
@@ -6305,28 +6305,28 @@
         <v>101.2118909988398</v>
       </c>
       <c r="J27" t="n">
-        <v>125.6532705892104</v>
+        <v>150.4703992230194</v>
       </c>
       <c r="K27" t="n">
-        <v>180.1276402926181</v>
+        <v>817.6049369897669</v>
       </c>
       <c r="L27" t="n">
-        <v>260.9025658513265</v>
+        <v>898.3798625484752</v>
       </c>
       <c r="M27" t="n">
-        <v>675.4849780636793</v>
+        <v>995.7858818463774</v>
       </c>
       <c r="N27" t="n">
-        <v>777.8104496505495</v>
+        <v>1098.111353433248</v>
       </c>
       <c r="O27" t="n">
-        <v>1780.228997365691</v>
+        <v>1188.108452311918</v>
       </c>
       <c r="P27" t="n">
-        <v>1849.317980235683</v>
+        <v>1257.197435181909</v>
       </c>
       <c r="Q27" t="n">
-        <v>1887.390266210097</v>
+        <v>1781.934765925191</v>
       </c>
       <c r="R27" t="n">
         <v>1893.425567335224</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3114.73448895723</v>
+        <v>829.7642165027471</v>
       </c>
       <c r="C28" t="n">
-        <v>3114.73448895723</v>
+        <v>657.7916533816631</v>
       </c>
       <c r="D28" t="n">
-        <v>3060.529975022648</v>
+        <v>494.4748805084337</v>
       </c>
       <c r="E28" t="n">
-        <v>2894.321769175501</v>
+        <v>494.4748805084337</v>
       </c>
       <c r="F28" t="n">
-        <v>2722.459994950062</v>
+        <v>494.4748805084337</v>
       </c>
       <c r="G28" t="n">
-        <v>2556.609056891476</v>
+        <v>328.6239424498477</v>
       </c>
       <c r="H28" t="n">
-        <v>2556.609056891476</v>
+        <v>188.4376644211284</v>
       </c>
       <c r="I28" t="n">
-        <v>2469.050967621549</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J28" t="n">
-        <v>2554.677475196097</v>
+        <v>186.5060827257495</v>
       </c>
       <c r="K28" t="n">
-        <v>2827.439818860207</v>
+        <v>459.2684263898591</v>
       </c>
       <c r="L28" t="n">
-        <v>3241.29369243652</v>
+        <v>873.1222999661725</v>
       </c>
       <c r="M28" t="n">
-        <v>3694.860212305674</v>
+        <v>1326.688819835327</v>
       </c>
       <c r="N28" t="n">
-        <v>4133.249173870294</v>
+        <v>1765.077781399947</v>
       </c>
       <c r="O28" t="n">
-        <v>4544.925954798979</v>
+        <v>2176.754562328631</v>
       </c>
       <c r="P28" t="n">
-        <v>4883.655605974781</v>
+        <v>2515.484213504434</v>
       </c>
       <c r="Q28" t="n">
-        <v>5043.978757560077</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="R28" t="n">
-        <v>5015.196803583264</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S28" t="n">
-        <v>4852.137780353742</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T28" t="n">
-        <v>4610.533295072146</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U28" t="n">
-        <v>4330.370993753206</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V28" t="n">
-        <v>4048.659526361235</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W28" t="n">
-        <v>3773.807122533748</v>
+        <v>1488.836850079266</v>
       </c>
       <c r="X28" t="n">
-        <v>3531.243225979553</v>
+        <v>1246.272953525071</v>
       </c>
       <c r="Y28" t="n">
-        <v>3304.900457669295</v>
+        <v>1019.930185214813</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>538.7800430623273</v>
       </c>
       <c r="K29" t="n">
-        <v>1367.139048934057</v>
+        <v>616.2237861716967</v>
       </c>
       <c r="L29" t="n">
-        <v>1469.211396607349</v>
+        <v>1685.850103472562</v>
       </c>
       <c r="M29" t="n">
-        <v>2629.275885903899</v>
+        <v>2845.914592769112</v>
       </c>
       <c r="N29" t="n">
-        <v>3763.82598944524</v>
+        <v>3132.415668289052</v>
       </c>
       <c r="O29" t="n">
-        <v>4758.447939008715</v>
+        <v>4127.037617852527</v>
       </c>
       <c r="P29" t="n">
-        <v>4848.823747585749</v>
+        <v>4962.892313779616</v>
       </c>
       <c r="Q29" t="n">
         <v>5022.932710906111</v>
@@ -6542,25 +6542,25 @@
         <v>101.2118909988398</v>
       </c>
       <c r="J30" t="n">
-        <v>125.6532705892104</v>
+        <v>255.925899507925</v>
       </c>
       <c r="K30" t="n">
-        <v>497.3040332070687</v>
+        <v>923.0604372746725</v>
       </c>
       <c r="L30" t="n">
-        <v>578.0789587657771</v>
+        <v>1003.835362833381</v>
       </c>
       <c r="M30" t="n">
-        <v>675.4849780636793</v>
+        <v>1101.241382131283</v>
       </c>
       <c r="N30" t="n">
-        <v>777.8104496505495</v>
+        <v>1203.566853718153</v>
       </c>
       <c r="O30" t="n">
-        <v>1780.228997365691</v>
+        <v>1293.563952596823</v>
       </c>
       <c r="P30" t="n">
-        <v>1849.317980235683</v>
+        <v>1362.652935466815</v>
       </c>
       <c r="Q30" t="n">
         <v>1887.390266210097</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3536.00558904568</v>
+        <v>938.404073693217</v>
       </c>
       <c r="C31" t="n">
-        <v>3364.033025924596</v>
+        <v>766.431510572133</v>
       </c>
       <c r="D31" t="n">
-        <v>3200.716253051367</v>
+        <v>766.431510572133</v>
       </c>
       <c r="E31" t="n">
-        <v>3034.50804720422</v>
+        <v>600.2233047249865</v>
       </c>
       <c r="F31" t="n">
-        <v>2862.646272978781</v>
+        <v>428.3615304995469</v>
       </c>
       <c r="G31" t="n">
-        <v>2696.795334920195</v>
+        <v>262.5105924409609</v>
       </c>
       <c r="H31" t="n">
-        <v>2556.609056891476</v>
+        <v>122.3243144122416</v>
       </c>
       <c r="I31" t="n">
-        <v>2469.050967621549</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J31" t="n">
-        <v>2554.677475196097</v>
+        <v>186.5060827257495</v>
       </c>
       <c r="K31" t="n">
-        <v>2827.439818860207</v>
+        <v>459.2684263898591</v>
       </c>
       <c r="L31" t="n">
-        <v>3241.29369243652</v>
+        <v>873.1222999661725</v>
       </c>
       <c r="M31" t="n">
-        <v>3694.860212305674</v>
+        <v>1326.688819835327</v>
       </c>
       <c r="N31" t="n">
-        <v>4133.249173870294</v>
+        <v>1765.077781399947</v>
       </c>
       <c r="O31" t="n">
-        <v>4544.925954798979</v>
+        <v>2176.754562328631</v>
       </c>
       <c r="P31" t="n">
-        <v>4883.655605974781</v>
+        <v>2515.484213504434</v>
       </c>
       <c r="Q31" t="n">
-        <v>5043.978757560077</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="R31" t="n">
-        <v>5043.978757560077</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S31" t="n">
-        <v>4880.919734330554</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="T31" t="n">
-        <v>4880.919734330554</v>
+        <v>2434.202879808134</v>
       </c>
       <c r="U31" t="n">
-        <v>4600.757433011614</v>
+        <v>2154.040578489194</v>
       </c>
       <c r="V31" t="n">
-        <v>4469.930626449686</v>
+        <v>1872.329111097222</v>
       </c>
       <c r="W31" t="n">
-        <v>4195.078222622199</v>
+        <v>1597.476707269735</v>
       </c>
       <c r="X31" t="n">
-        <v>3952.514326068004</v>
+        <v>1354.912810715541</v>
       </c>
       <c r="Y31" t="n">
-        <v>3726.171557757746</v>
+        <v>1128.570042405283</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>792.911684941555</v>
       </c>
       <c r="G32" t="n">
-        <v>389.4778004379235</v>
+        <v>389.4778004379234</v>
       </c>
       <c r="H32" t="n">
         <v>100.8795751512015</v>
@@ -6700,46 +6700,46 @@
         <v>100.8795751512015</v>
       </c>
       <c r="J32" t="n">
-        <v>147.0508243547012</v>
+        <v>147.0508243547011</v>
       </c>
       <c r="K32" t="n">
-        <v>224.4945674640705</v>
+        <v>975.4098302264308</v>
       </c>
       <c r="L32" t="n">
-        <v>1294.120884764936</v>
+        <v>2045.036147527296</v>
       </c>
       <c r="M32" t="n">
-        <v>2454.185374061486</v>
+        <v>2163.757585134351</v>
       </c>
       <c r="N32" t="n">
-        <v>3588.735477602827</v>
+        <v>3298.307688675692</v>
       </c>
       <c r="O32" t="n">
-        <v>4583.357427166302</v>
+        <v>3635.18871048979</v>
       </c>
       <c r="P32" t="n">
-        <v>4673.733235743335</v>
+        <v>4471.043406416879</v>
       </c>
       <c r="Q32" t="n">
-        <v>5022.932710906111</v>
+        <v>5022.932710906109</v>
       </c>
       <c r="R32" t="n">
-        <v>5043.978757560077</v>
+        <v>5043.978757560075</v>
       </c>
       <c r="S32" t="n">
-        <v>4960.238204987154</v>
+        <v>4960.238204987152</v>
       </c>
       <c r="T32" t="n">
-        <v>4743.275050319329</v>
+        <v>4743.275050319327</v>
       </c>
       <c r="U32" t="n">
-        <v>4484.992555148294</v>
+        <v>4484.992555148293</v>
       </c>
       <c r="V32" t="n">
         <v>4127.503140274543</v>
       </c>
       <c r="W32" t="n">
-        <v>3731.111790574889</v>
+        <v>3731.11179057489</v>
       </c>
       <c r="X32" t="n">
         <v>3319.391791742637</v>
@@ -6755,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>662.8413105169817</v>
+        <v>662.8413105169816</v>
       </c>
       <c r="C33" t="n">
-        <v>545.3354070344865</v>
+        <v>545.3354070344864</v>
       </c>
       <c r="D33" t="n">
-        <v>441.4954485497715</v>
+        <v>441.4954485497714</v>
       </c>
       <c r="E33" t="n">
-        <v>336.7935148227087</v>
+        <v>336.7935148227086</v>
       </c>
       <c r="F33" t="n">
-        <v>243.1476845056129</v>
+        <v>243.1476845056128</v>
       </c>
       <c r="G33" t="n">
-        <v>149.5782256004901</v>
+        <v>149.57822560049</v>
       </c>
       <c r="H33" t="n">
         <v>100.8795751512015</v>
       </c>
       <c r="I33" t="n">
-        <v>124.6691968432517</v>
+        <v>124.6691968432516</v>
       </c>
       <c r="J33" t="n">
-        <v>441.2130689032133</v>
+        <v>149.1105764336222</v>
       </c>
       <c r="K33" t="n">
-        <v>495.6874386066211</v>
+        <v>816.2451142003697</v>
       </c>
       <c r="L33" t="n">
-        <v>576.4623641653295</v>
+        <v>897.0200397590781</v>
       </c>
       <c r="M33" t="n">
-        <v>1587.906426900151</v>
+        <v>994.4260590569803</v>
       </c>
       <c r="N33" t="n">
-        <v>1690.231898487021</v>
+        <v>1096.75153064385</v>
       </c>
       <c r="O33" t="n">
-        <v>1780.228997365691</v>
+        <v>1186.748629522521</v>
       </c>
       <c r="P33" t="n">
-        <v>1849.317980235683</v>
+        <v>1743.862479950777</v>
       </c>
       <c r="Q33" t="n">
-        <v>1887.390266210097</v>
+        <v>1781.934765925191</v>
       </c>
       <c r="R33" t="n">
-        <v>1893.425567335224</v>
+        <v>1893.425567335223</v>
       </c>
       <c r="S33" t="n">
-        <v>1821.0972191739</v>
+        <v>1821.097219173899</v>
       </c>
       <c r="T33" t="n">
-        <v>1681.169404235675</v>
+        <v>1681.169404235674</v>
       </c>
       <c r="U33" t="n">
-        <v>1496.433070844606</v>
+        <v>1496.433070844605</v>
       </c>
       <c r="V33" t="n">
         <v>1291.459931983872</v>
@@ -6821,10 +6821,10 @@
         <v>1094.938554817089</v>
       </c>
       <c r="X33" t="n">
-        <v>931.4612085837521</v>
+        <v>931.461208583752</v>
       </c>
       <c r="Y33" t="n">
-        <v>791.7683199370445</v>
+        <v>791.7683199370443</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>775.3450504636946</v>
+        <v>1057.056517855666</v>
       </c>
       <c r="C34" t="n">
-        <v>603.3724873426106</v>
+        <v>885.0839547345818</v>
       </c>
       <c r="D34" t="n">
-        <v>440.0557144693813</v>
+        <v>721.7671818613525</v>
       </c>
       <c r="E34" t="n">
-        <v>440.0557144693813</v>
+        <v>555.558976014206</v>
       </c>
       <c r="F34" t="n">
-        <v>440.0557144693813</v>
+        <v>494.4748805084336</v>
       </c>
       <c r="G34" t="n">
-        <v>274.2047764107953</v>
+        <v>328.6239424498476</v>
       </c>
       <c r="H34" t="n">
-        <v>188.4376644211284</v>
+        <v>188.4376644211283</v>
       </c>
       <c r="I34" t="n">
         <v>100.8795751512015</v>
@@ -6894,16 +6894,16 @@
         <v>1990.981555259671</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.2700878677</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.417684040213</v>
+        <v>1716.129151432184</v>
       </c>
       <c r="X34" t="n">
-        <v>1191.853787486018</v>
+        <v>1473.565254877989</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.5110191757603</v>
+        <v>1247.222486567731</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>2067.305427419297</v>
       </c>
       <c r="D35" t="n">
-        <v>1644.012806604298</v>
+        <v>1644.012806604297</v>
       </c>
       <c r="E35" t="n">
         <v>1218.035866752155</v>
       </c>
       <c r="F35" t="n">
-        <v>792.9116849415554</v>
+        <v>792.911684941555</v>
       </c>
       <c r="G35" t="n">
         <v>389.4778004379234</v>
@@ -6940,25 +6940,25 @@
         <v>538.7800430623273</v>
       </c>
       <c r="K35" t="n">
-        <v>616.2237861716967</v>
+        <v>1367.139048934057</v>
       </c>
       <c r="L35" t="n">
-        <v>1583.279962801216</v>
+        <v>1980.535448850225</v>
       </c>
       <c r="M35" t="n">
-        <v>2743.344452097765</v>
+        <v>2099.25688645728</v>
       </c>
       <c r="N35" t="n">
-        <v>3877.894555639106</v>
+        <v>3233.80698999862</v>
       </c>
       <c r="O35" t="n">
-        <v>4872.516505202581</v>
+        <v>4228.428939562095</v>
       </c>
       <c r="P35" t="n">
-        <v>4962.892313779615</v>
+        <v>4318.804748139129</v>
       </c>
       <c r="Q35" t="n">
-        <v>5022.932710906109</v>
+        <v>4870.694052628358</v>
       </c>
       <c r="R35" t="n">
         <v>5043.978757560075</v>
@@ -6970,13 +6970,13 @@
         <v>4743.275050319327</v>
       </c>
       <c r="U35" t="n">
-        <v>4484.992555148293</v>
+        <v>4484.992555148294</v>
       </c>
       <c r="V35" t="n">
         <v>4127.503140274543</v>
       </c>
       <c r="W35" t="n">
-        <v>3731.11179057489</v>
+        <v>3731.111790574889</v>
       </c>
       <c r="X35" t="n">
         <v>3319.391791742637</v>
@@ -7013,31 +7013,31 @@
         <v>100.8795751512015</v>
       </c>
       <c r="I36" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432516</v>
       </c>
       <c r="J36" t="n">
-        <v>125.6532705892103</v>
+        <v>149.1105764336222</v>
       </c>
       <c r="K36" t="n">
-        <v>180.1276402926181</v>
+        <v>671.9746322122614</v>
       </c>
       <c r="L36" t="n">
-        <v>260.9025658513265</v>
+        <v>752.7495577709699</v>
       </c>
       <c r="M36" t="n">
-        <v>358.3085851492286</v>
+        <v>850.155577068872</v>
       </c>
       <c r="N36" t="n">
-        <v>1571.078601140375</v>
+        <v>952.4810486557423</v>
       </c>
       <c r="O36" t="n">
-        <v>1674.773497080785</v>
+        <v>1042.478147534413</v>
       </c>
       <c r="P36" t="n">
-        <v>1743.862479950777</v>
+        <v>1849.317980235683</v>
       </c>
       <c r="Q36" t="n">
-        <v>1781.934765925191</v>
+        <v>1887.390266210096</v>
       </c>
       <c r="R36" t="n">
         <v>1893.425567335223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3114.734488957228</v>
+        <v>746.5630964868826</v>
       </c>
       <c r="C37" t="n">
-        <v>2942.761925836144</v>
+        <v>574.5905333657986</v>
       </c>
       <c r="D37" t="n">
-        <v>2868.657109145633</v>
+        <v>411.2737604925693</v>
       </c>
       <c r="E37" t="n">
-        <v>2868.657109145633</v>
+        <v>245.0655546454228</v>
       </c>
       <c r="F37" t="n">
-        <v>2696.795334920193</v>
+        <v>245.0655546454228</v>
       </c>
       <c r="G37" t="n">
-        <v>2696.795334920193</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="H37" t="n">
-        <v>2556.609056891474</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I37" t="n">
-        <v>2469.050967621547</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J37" t="n">
-        <v>2554.677475196095</v>
+        <v>186.5060827257495</v>
       </c>
       <c r="K37" t="n">
-        <v>2827.439818860205</v>
+        <v>459.2684263898591</v>
       </c>
       <c r="L37" t="n">
-        <v>3241.293692436518</v>
+        <v>873.1222999661725</v>
       </c>
       <c r="M37" t="n">
-        <v>3694.860212305673</v>
+        <v>1326.688819835327</v>
       </c>
       <c r="N37" t="n">
-        <v>4133.249173870292</v>
+        <v>1765.077781399947</v>
       </c>
       <c r="O37" t="n">
-        <v>4544.925954798977</v>
+        <v>2176.754562328631</v>
       </c>
       <c r="P37" t="n">
-        <v>4883.655605974779</v>
+        <v>2515.484213504434</v>
       </c>
       <c r="Q37" t="n">
-        <v>5043.978757560075</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="R37" t="n">
-        <v>5015.196803583262</v>
+        <v>2647.025411112918</v>
       </c>
       <c r="S37" t="n">
-        <v>4852.13778035374</v>
+        <v>2483.966387883395</v>
       </c>
       <c r="T37" t="n">
-        <v>4610.533295072144</v>
+        <v>2242.3619026018</v>
       </c>
       <c r="U37" t="n">
-        <v>4330.370993753204</v>
+        <v>1962.199601282859</v>
       </c>
       <c r="V37" t="n">
-        <v>4048.659526361233</v>
+        <v>1680.488133890888</v>
       </c>
       <c r="W37" t="n">
-        <v>3773.807122533746</v>
+        <v>1405.635730063401</v>
       </c>
       <c r="X37" t="n">
-        <v>3531.243225979551</v>
+        <v>1163.071833509206</v>
       </c>
       <c r="Y37" t="n">
-        <v>3304.900457669293</v>
+        <v>936.7290651989483</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2067.305427419297</v>
       </c>
       <c r="D38" t="n">
-        <v>1644.012806604298</v>
+        <v>1644.012806604297</v>
       </c>
       <c r="E38" t="n">
         <v>1218.035866752155</v>
       </c>
       <c r="F38" t="n">
-        <v>792.9116849415552</v>
+        <v>792.911684941555</v>
       </c>
       <c r="G38" t="n">
-        <v>389.4778004379237</v>
+        <v>389.4778004379234</v>
       </c>
       <c r="H38" t="n">
         <v>100.8795751512015</v>
@@ -7177,13 +7177,13 @@
         <v>538.7800430623273</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.139048934057</v>
+        <v>616.2237861716967</v>
       </c>
       <c r="L38" t="n">
-        <v>1469.211396607349</v>
+        <v>1685.850103472562</v>
       </c>
       <c r="M38" t="n">
-        <v>1587.932834214403</v>
+        <v>2366.935884200025</v>
       </c>
       <c r="N38" t="n">
         <v>2488.328102648564</v>
@@ -7250,31 +7250,31 @@
         <v>100.8795751512015</v>
       </c>
       <c r="I39" t="n">
-        <v>124.6691968432516</v>
+        <v>101.2118909988398</v>
       </c>
       <c r="J39" t="n">
-        <v>441.2130689032133</v>
+        <v>125.6532705892103</v>
       </c>
       <c r="K39" t="n">
-        <v>1108.347606669961</v>
+        <v>792.7878083559578</v>
       </c>
       <c r="L39" t="n">
-        <v>1189.122532228669</v>
+        <v>873.5627339146663</v>
       </c>
       <c r="M39" t="n">
-        <v>1286.528551526571</v>
+        <v>970.9687532125685</v>
       </c>
       <c r="N39" t="n">
-        <v>1388.854023113442</v>
+        <v>1073.294224799439</v>
       </c>
       <c r="O39" t="n">
-        <v>1478.851121992112</v>
+        <v>1163.291323678109</v>
       </c>
       <c r="P39" t="n">
-        <v>1547.940104862103</v>
+        <v>1849.317980235683</v>
       </c>
       <c r="Q39" t="n">
-        <v>1781.934765925191</v>
+        <v>1887.390266210096</v>
       </c>
       <c r="R39" t="n">
         <v>1893.425567335223</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>936.7290651989483</v>
+        <v>1167.834196575333</v>
       </c>
       <c r="C40" t="n">
-        <v>936.7290651989483</v>
+        <v>995.8616334542489</v>
       </c>
       <c r="D40" t="n">
-        <v>773.412292325719</v>
+        <v>832.5448605810196</v>
       </c>
       <c r="E40" t="n">
-        <v>607.2040864785725</v>
+        <v>666.3366547338732</v>
       </c>
       <c r="F40" t="n">
         <v>494.4748805084336</v>
@@ -7356,28 +7356,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R40" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S40" t="n">
-        <v>2483.966387883395</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T40" t="n">
-        <v>2242.3619026018</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U40" t="n">
-        <v>1962.199601282859</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V40" t="n">
-        <v>1680.488133890888</v>
+        <v>1826.906830151851</v>
       </c>
       <c r="W40" t="n">
-        <v>1405.635730063401</v>
+        <v>1826.906830151851</v>
       </c>
       <c r="X40" t="n">
-        <v>1163.071833509206</v>
+        <v>1584.342933597657</v>
       </c>
       <c r="Y40" t="n">
-        <v>936.7290651989483</v>
+        <v>1358.000165287399</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1308.008343034371</v>
+        <v>1413.600925724999</v>
       </c>
       <c r="C41" t="n">
-        <v>881.1076130476707</v>
+        <v>986.7001957382993</v>
       </c>
       <c r="D41" t="n">
-        <v>881.1076130476707</v>
+        <v>986.7001957382993</v>
       </c>
       <c r="E41" t="n">
-        <v>881.1076130476707</v>
+        <v>560.7232558861568</v>
       </c>
       <c r="F41" t="n">
-        <v>455.9834312370709</v>
+        <v>462.1515168436723</v>
       </c>
       <c r="G41" t="n">
-        <v>52.54954673343938</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="H41" t="n">
-        <v>52.54954673343938</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="I41" t="n">
-        <v>52.54954673343938</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="J41" t="n">
-        <v>490.4500146445652</v>
+        <v>104.8888815435405</v>
       </c>
       <c r="K41" t="n">
-        <v>567.8937577539346</v>
+        <v>831.5195817515454</v>
       </c>
       <c r="L41" t="n">
-        <v>669.9661054272267</v>
+        <v>1558.15028195955</v>
       </c>
       <c r="M41" t="n">
-        <v>1320.266746253539</v>
+        <v>1676.871719566604</v>
       </c>
       <c r="N41" t="n">
-        <v>1970.567387079851</v>
+        <v>1798.263938015143</v>
       </c>
       <c r="O41" t="n">
-        <v>2456.015084314475</v>
+        <v>1910.724187665342</v>
       </c>
       <c r="P41" t="n">
-        <v>2546.390892891508</v>
+        <v>2637.354887873347</v>
       </c>
       <c r="Q41" t="n">
-        <v>2606.431290018003</v>
+        <v>2914.835570348074</v>
       </c>
       <c r="R41" t="n">
-        <v>2627.477336671969</v>
+        <v>2935.88161700204</v>
       </c>
       <c r="S41" t="n">
-        <v>2627.477336671969</v>
+        <v>2852.141064429117</v>
       </c>
       <c r="T41" t="n">
-        <v>2410.514182004144</v>
+        <v>2635.177909761292</v>
       </c>
       <c r="U41" t="n">
-        <v>2410.514182004144</v>
+        <v>2635.177909761292</v>
       </c>
       <c r="V41" t="n">
-        <v>2139.576706158154</v>
+        <v>2635.177909761292</v>
       </c>
       <c r="W41" t="n">
-        <v>2139.576706158154</v>
+        <v>2238.786560061639</v>
       </c>
       <c r="X41" t="n">
-        <v>1727.856707325901</v>
+        <v>2238.786560061639</v>
       </c>
       <c r="Y41" t="n">
-        <v>1727.856707325901</v>
+        <v>1833.449290016529</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>614.5112820992196</v>
+        <v>620.6793677058209</v>
       </c>
       <c r="C42" t="n">
-        <v>497.0053786167243</v>
+        <v>503.1734642233257</v>
       </c>
       <c r="D42" t="n">
-        <v>393.1654201320093</v>
+        <v>399.3335057386108</v>
       </c>
       <c r="E42" t="n">
-        <v>288.4634864049465</v>
+        <v>294.631572011548</v>
       </c>
       <c r="F42" t="n">
-        <v>194.8176560878507</v>
+        <v>200.9857416944521</v>
       </c>
       <c r="G42" t="n">
-        <v>101.2481971827279</v>
+        <v>107.4162827893293</v>
       </c>
       <c r="H42" t="n">
-        <v>52.54954673343938</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="I42" t="n">
-        <v>52.88186258107766</v>
+        <v>82.50725403209093</v>
       </c>
       <c r="J42" t="n">
-        <v>77.32324217144821</v>
+        <v>399.0511260920526</v>
       </c>
       <c r="K42" t="n">
-        <v>727.6238829977605</v>
+        <v>1066.1856638588</v>
       </c>
       <c r="L42" t="n">
-        <v>808.3988085564688</v>
+        <v>1146.960589417509</v>
       </c>
       <c r="M42" t="n">
-        <v>1458.699449382781</v>
+        <v>1244.366608715411</v>
       </c>
       <c r="N42" t="n">
-        <v>1561.024920969651</v>
+        <v>1346.692080302281</v>
       </c>
       <c r="O42" t="n">
-        <v>1651.022019848321</v>
+        <v>1436.689179180951</v>
       </c>
       <c r="P42" t="n">
-        <v>1800.987951817921</v>
+        <v>1505.778162050943</v>
       </c>
       <c r="Q42" t="n">
-        <v>1839.060237792335</v>
+        <v>1845.228323398936</v>
       </c>
       <c r="R42" t="n">
-        <v>1845.095538917462</v>
+        <v>1851.263624524063</v>
       </c>
       <c r="S42" t="n">
-        <v>1772.767190756138</v>
+        <v>1778.935276362739</v>
       </c>
       <c r="T42" t="n">
-        <v>1632.839375817913</v>
+        <v>1639.007461424514</v>
       </c>
       <c r="U42" t="n">
-        <v>1448.103042426844</v>
+        <v>1454.271128033445</v>
       </c>
       <c r="V42" t="n">
-        <v>1243.12990356611</v>
+        <v>1249.297989172711</v>
       </c>
       <c r="W42" t="n">
-        <v>1046.608526399327</v>
+        <v>1052.776612005928</v>
       </c>
       <c r="X42" t="n">
-        <v>883.1311801659899</v>
+        <v>889.2992657725913</v>
       </c>
       <c r="Y42" t="n">
-        <v>743.4382915192823</v>
+        <v>749.6063771258837</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>953.6532300989849</v>
+        <v>1125.672253764172</v>
       </c>
       <c r="C43" t="n">
-        <v>781.6806669779008</v>
+        <v>953.6996906430883</v>
       </c>
       <c r="D43" t="n">
-        <v>618.3638941046715</v>
+        <v>790.382917769859</v>
       </c>
       <c r="E43" t="n">
-        <v>452.1556882575251</v>
+        <v>624.1747119227125</v>
       </c>
       <c r="F43" t="n">
-        <v>280.2939140320855</v>
+        <v>452.312937697273</v>
       </c>
       <c r="G43" t="n">
-        <v>280.2939140320855</v>
+        <v>286.461999638687</v>
       </c>
       <c r="H43" t="n">
-        <v>140.1076360033662</v>
+        <v>146.2757216099676</v>
       </c>
       <c r="I43" t="n">
-        <v>52.54954673343938</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="J43" t="n">
-        <v>138.1760543079874</v>
+        <v>144.3441399145888</v>
       </c>
       <c r="K43" t="n">
-        <v>410.9383979720969</v>
+        <v>417.1064835786984</v>
       </c>
       <c r="L43" t="n">
-        <v>824.7922715484103</v>
+        <v>830.9603571550117</v>
       </c>
       <c r="M43" t="n">
-        <v>1278.358791417565</v>
+        <v>1284.526877024166</v>
       </c>
       <c r="N43" t="n">
-        <v>1716.747752982184</v>
+        <v>1722.915838588786</v>
       </c>
       <c r="O43" t="n">
-        <v>2128.424533910869</v>
+        <v>2134.592619517471</v>
       </c>
       <c r="P43" t="n">
-        <v>2467.154185086672</v>
+        <v>2473.322270693273</v>
       </c>
       <c r="Q43" t="n">
-        <v>2627.477336671971</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="R43" t="n">
-        <v>2627.477336671971</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="S43" t="n">
-        <v>2464.418313442448</v>
+        <v>2470.586399049047</v>
       </c>
       <c r="T43" t="n">
-        <v>2222.813828160852</v>
+        <v>2228.981913767451</v>
       </c>
       <c r="U43" t="n">
-        <v>1942.651526841912</v>
+        <v>1948.81961244851</v>
       </c>
       <c r="V43" t="n">
-        <v>1660.940059449941</v>
+        <v>1667.108145056539</v>
       </c>
       <c r="W43" t="n">
-        <v>1386.087655622454</v>
+        <v>1392.255741229052</v>
       </c>
       <c r="X43" t="n">
-        <v>1179.995998409243</v>
+        <v>1392.255741229052</v>
       </c>
       <c r="Y43" t="n">
-        <v>953.6532300989849</v>
+        <v>1315.838222476238</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1173.608548835251</v>
+        <v>1740.153368493114</v>
       </c>
       <c r="C44" t="n">
-        <v>879.2760520520707</v>
+        <v>1313.252638506415</v>
       </c>
       <c r="D44" t="n">
-        <v>455.9834312370709</v>
+        <v>1313.252638506415</v>
       </c>
       <c r="E44" t="n">
-        <v>455.9834312370709</v>
+        <v>887.2756986542721</v>
       </c>
       <c r="F44" t="n">
-        <v>455.9834312370709</v>
+        <v>462.1515168436723</v>
       </c>
       <c r="G44" t="n">
-        <v>52.54954673343938</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="H44" t="n">
-        <v>52.54954673343938</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="I44" t="n">
-        <v>52.54954673343938</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="J44" t="n">
-        <v>490.4500146445652</v>
+        <v>496.6181002511666</v>
       </c>
       <c r="K44" t="n">
-        <v>1140.750655470878</v>
+        <v>574.0618433605359</v>
       </c>
       <c r="L44" t="n">
-        <v>1571.861975389425</v>
+        <v>697.9168384172632</v>
       </c>
       <c r="M44" t="n">
-        <v>2222.162616215738</v>
+        <v>1424.547538625268</v>
       </c>
       <c r="N44" t="n">
-        <v>2343.554834664276</v>
+        <v>1545.939757073807</v>
       </c>
       <c r="O44" t="n">
-        <v>2456.015084314475</v>
+        <v>2272.570457281811</v>
       </c>
       <c r="P44" t="n">
-        <v>2546.390892891508</v>
+        <v>2362.946265858845</v>
       </c>
       <c r="Q44" t="n">
-        <v>2606.431290018003</v>
+        <v>2914.835570348074</v>
       </c>
       <c r="R44" t="n">
-        <v>2627.477336671969</v>
+        <v>2935.88161700204</v>
       </c>
       <c r="S44" t="n">
-        <v>2627.477336671969</v>
+        <v>2852.141064429117</v>
       </c>
       <c r="T44" t="n">
-        <v>2410.514182004144</v>
+        <v>2767.645277370152</v>
       </c>
       <c r="U44" t="n">
-        <v>2410.514182004144</v>
+        <v>2509.362782199118</v>
       </c>
       <c r="V44" t="n">
-        <v>2410.514182004144</v>
+        <v>2151.873367325367</v>
       </c>
       <c r="W44" t="n">
-        <v>2410.514182004144</v>
+        <v>2151.873367325367</v>
       </c>
       <c r="X44" t="n">
-        <v>1998.794183171891</v>
+        <v>1740.153368493114</v>
       </c>
       <c r="Y44" t="n">
-        <v>1593.456913126781</v>
+        <v>1740.153368493114</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>614.5112820992196</v>
+        <v>620.6793677058209</v>
       </c>
       <c r="C45" t="n">
-        <v>497.0053786167243</v>
+        <v>503.1734642233257</v>
       </c>
       <c r="D45" t="n">
-        <v>393.1654201320093</v>
+        <v>399.3335057386108</v>
       </c>
       <c r="E45" t="n">
-        <v>288.4634864049465</v>
+        <v>294.631572011548</v>
       </c>
       <c r="F45" t="n">
-        <v>194.8176560878507</v>
+        <v>200.9857416944521</v>
       </c>
       <c r="G45" t="n">
-        <v>101.2481971827279</v>
+        <v>107.4162827893293</v>
       </c>
       <c r="H45" t="n">
-        <v>52.54954673343938</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="I45" t="n">
-        <v>76.3391684254895</v>
+        <v>59.04994818767909</v>
       </c>
       <c r="J45" t="n">
-        <v>100.7805480158601</v>
+        <v>108.3084564118586</v>
       </c>
       <c r="K45" t="n">
-        <v>155.2549177192678</v>
+        <v>775.4429941786061</v>
       </c>
       <c r="L45" t="n">
-        <v>374.2936764592981</v>
+        <v>856.2179197373144</v>
       </c>
       <c r="M45" t="n">
-        <v>471.6996957572002</v>
+        <v>953.6239390352166</v>
       </c>
       <c r="N45" t="n">
-        <v>574.0251673440704</v>
+        <v>1055.949410622087</v>
       </c>
       <c r="O45" t="n">
-        <v>664.0222662227407</v>
+        <v>1145.946509500757</v>
       </c>
       <c r="P45" t="n">
-        <v>1314.322907049053</v>
+        <v>1215.035492370749</v>
       </c>
       <c r="Q45" t="n">
-        <v>1839.060237792335</v>
+        <v>1739.77282311403</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.095538917462</v>
+        <v>1851.263624524063</v>
       </c>
       <c r="S45" t="n">
-        <v>1772.767190756138</v>
+        <v>1778.935276362739</v>
       </c>
       <c r="T45" t="n">
-        <v>1632.839375817913</v>
+        <v>1639.007461424514</v>
       </c>
       <c r="U45" t="n">
-        <v>1448.103042426844</v>
+        <v>1454.271128033445</v>
       </c>
       <c r="V45" t="n">
-        <v>1243.12990356611</v>
+        <v>1249.297989172711</v>
       </c>
       <c r="W45" t="n">
-        <v>1046.608526399327</v>
+        <v>1052.776612005928</v>
       </c>
       <c r="X45" t="n">
-        <v>883.1311801659899</v>
+        <v>889.2992657725913</v>
       </c>
       <c r="Y45" t="n">
-        <v>743.4382915192823</v>
+        <v>749.6063771258837</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1119.504168157571</v>
+        <v>923.3490763645996</v>
       </c>
       <c r="C46" t="n">
-        <v>947.5316050364869</v>
+        <v>923.3490763645996</v>
       </c>
       <c r="D46" t="n">
-        <v>784.2148321632576</v>
+        <v>760.0323034913703</v>
       </c>
       <c r="E46" t="n">
-        <v>618.0066263161111</v>
+        <v>593.8240976442238</v>
       </c>
       <c r="F46" t="n">
-        <v>446.1448520906715</v>
+        <v>421.9623234187842</v>
       </c>
       <c r="G46" t="n">
-        <v>280.2939140320855</v>
+        <v>256.1113853601982</v>
       </c>
       <c r="H46" t="n">
-        <v>140.1076360033662</v>
+        <v>146.2757216099676</v>
       </c>
       <c r="I46" t="n">
-        <v>52.54954673343938</v>
+        <v>58.7176323400408</v>
       </c>
       <c r="J46" t="n">
-        <v>138.1760543079886</v>
+        <v>144.3441399145888</v>
       </c>
       <c r="K46" t="n">
-        <v>410.9383979720982</v>
+        <v>417.1064835786984</v>
       </c>
       <c r="L46" t="n">
-        <v>824.7922715484118</v>
+        <v>830.9603571550117</v>
       </c>
       <c r="M46" t="n">
-        <v>1278.358791417566</v>
+        <v>1284.526877024166</v>
       </c>
       <c r="N46" t="n">
-        <v>1716.747752982186</v>
+        <v>1722.915838588786</v>
       </c>
       <c r="O46" t="n">
-        <v>2128.424533910871</v>
+        <v>2134.592619517471</v>
       </c>
       <c r="P46" t="n">
-        <v>2467.154185086672</v>
+        <v>2473.322270693273</v>
       </c>
       <c r="Q46" t="n">
-        <v>2627.477336671969</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="R46" t="n">
-        <v>2598.695382695157</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="S46" t="n">
-        <v>2435.636359465634</v>
+        <v>2470.586399049047</v>
       </c>
       <c r="T46" t="n">
-        <v>2194.031874184038</v>
+        <v>2228.981913767451</v>
       </c>
       <c r="U46" t="n">
-        <v>2053.429205561576</v>
+        <v>1948.81961244851</v>
       </c>
       <c r="V46" t="n">
-        <v>2053.429205561576</v>
+        <v>1667.108145056539</v>
       </c>
       <c r="W46" t="n">
-        <v>1778.576801734089</v>
+        <v>1392.255741229052</v>
       </c>
       <c r="X46" t="n">
-        <v>1536.012905179894</v>
+        <v>1149.691844674858</v>
       </c>
       <c r="Y46" t="n">
-        <v>1309.670136869637</v>
+        <v>923.3490763645996</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>63.88091092762902</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>66.42835256544261</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>65.54757303225151</v>
       </c>
       <c r="N2" t="n">
-        <v>65.39593296726571</v>
+        <v>64.25992043664672</v>
       </c>
       <c r="O2" t="n">
-        <v>64.37125695822481</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>65.69167194305098</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.24098473741773</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8063,25 +8063,25 @@
         <v>50.51554396615302</v>
       </c>
       <c r="L3" t="n">
-        <v>50.63139684704925</v>
+        <v>41.97352273874154</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>41.22927722934065</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>51.78922952696383</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L4" t="n">
         <v>21.91875989570122</v>
@@ -8148,16 +8148,16 @@
         <v>50.69175002430551</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O4" t="n">
         <v>49.47948510062515</v>
       </c>
       <c r="P4" t="n">
-        <v>50.49711079080617</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>57.53626961840621</v>
       </c>
       <c r="K5" t="n">
-        <v>288.5553442940176</v>
+        <v>62.74489839701005</v>
       </c>
       <c r="L5" t="n">
-        <v>280.8890185177218</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>65.39593296726571</v>
       </c>
       <c r="O5" t="n">
-        <v>290.1817028552324</v>
+        <v>65.50726948884378</v>
       </c>
       <c r="P5" t="n">
-        <v>290.3661053094396</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>255.6662288407435</v>
+        <v>48.72742446615302</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>50.63139684704925</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,13 +8309,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>275.9626332214305</v>
+        <v>50.15218732442293</v>
       </c>
       <c r="P6" t="n">
-        <v>274.561584704037</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>275.5377817881868</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L7" t="n">
-        <v>78.1407274303759</v>
+        <v>48.89905749790193</v>
       </c>
       <c r="M7" t="n">
-        <v>275.3661833906941</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N7" t="n">
-        <v>273.5396444748087</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O7" t="n">
-        <v>275.2899309976328</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>50.49711079080617</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>112.2559661033163</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,16 +8540,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>101.0427079326425</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
@@ -8613,10 +8613,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
-        <v>380.1908016072373</v>
+        <v>291.5984102914562</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8628,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>129.0289299912522</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>553.7659526798179</v>
+        <v>630.8670227623361</v>
       </c>
       <c r="M11" t="n">
-        <v>536.9486901204623</v>
+        <v>614.0497602029805</v>
       </c>
       <c r="N11" t="n">
-        <v>534.2509316947207</v>
+        <v>11.50984384497826</v>
       </c>
       <c r="O11" t="n">
-        <v>64.89870188008078</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>25.06780670081716</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>558.4794156852624</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>258.2706279026296</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>209.652933677466</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>553.7659526798179</v>
+        <v>630.8670227623361</v>
       </c>
       <c r="M14" t="n">
-        <v>536.9486901204622</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>543.2731224001139</v>
+        <v>471.7831815451798</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>325.1691902860058</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>348.8634386136936</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9175,13 +9175,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>161.2853350091875</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>28.96595603996853</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>131.5885140593073</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>374.2516139605337</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>231.8271774331932</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>60.15433636766269</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>25.32717216652425</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>221.595637306147</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>585.441279761025</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.303454301544</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>350.5573656328452</v>
+        <v>325.1691902860052</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9886,13 +9886,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>166.7766233044452</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>292.0798768043244</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>25.0678067008172</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>320.3801948630814</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,25 +10114,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>166.7766233044452</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>115.2207739331998</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>131.5885140593077</v>
       </c>
       <c r="K30" t="n">
-        <v>320.3801948630813</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>226.6876486504029</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>292.0798768043245</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>923.2707509463833</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>492.9544116750149</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>873.7210393497239</v>
+        <v>516.4889416594708</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>473.1208950254862</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>13.83615864822252</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>568.0447910307157</v>
       </c>
       <c r="N38" t="n">
-        <v>786.8717676622446</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>623.169367361194</v>
       </c>
       <c r="Q39" t="n">
-        <v>197.9013889784581</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>655.7444011097328</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>630.8670227623361</v>
       </c>
       <c r="M41" t="n">
-        <v>536.9486901204626</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>534.250931694721</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>376.7549975600252</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>642.6817087181531</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>219.6366518669019</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>601.8447183059641</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>558.4794156852628</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>81.69388797940184</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>304.422096336949</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>578.643331027215</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>332.3625982275311</v>
+        <v>22.00267412468192</v>
       </c>
       <c r="M44" t="n">
-        <v>536.9486901204625</v>
+        <v>614.0497602029803</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>620.3741924826321</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>25.06780670081716</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>139.6604375568908</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>587.0824827841623</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>398.8368633584933</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>399.3995456585952</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>356.1580655132621</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>48.16826067746372</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S13" t="n">
-        <v>139.6977107818149</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3606783057509</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>399.3995456585952</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T14" t="n">
         <v>214.7935231211468</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>72.58596671215571</v>
+        <v>37.19358273338401</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>144.9545092983541</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>111.2035763447708</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>116.8455408419066</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>38.87151262834976</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>161.4284329972273</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.6977107818159</v>
+        <v>77.80240564613906</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3606783057509</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>148.4259970618693</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>252.8659604095657</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>108.0211363492609</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>53.8749743786619</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>65.4522165087979</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>28.49413443704394</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T31" t="n">
-        <v>239.1884404287796</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>149.375814221743</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>109.6699019324705</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>53.87497437866188</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>88.31983662089097</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.1924286780001</v>
+        <v>160.2327242271531</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>58.54124257274765</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>116.4603748613097</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>323.2869183404341</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>255.6996702193238</v>
       </c>
       <c r="V41" t="n">
-        <v>85.68641963748308</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>36.10751694757431</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>148.4259970618691</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>131.2425508714841</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>131.1426939327709</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>30.04710813570388</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>138.1640363695133</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>589747.1116094963</v>
+        <v>554028.8694694265</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>427415.1793352971</v>
+        <v>456129.0719259414</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427415.1793352971</v>
+        <v>456129.0719259414</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652402.8551556789</v>
+        <v>652402.855155679</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652402.8551556792</v>
+        <v>652402.855155679</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652402.8551556792</v>
+        <v>652402.855155679</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652402.855155679</v>
+        <v>652402.8551556789</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427415.1793352972</v>
+        <v>456129.0719259414</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427415.1793352972</v>
+        <v>456129.0719259414</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480515.2011092093</v>
+        <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
         <v>480515.2011092093</v>
       </c>
       <c r="D2" t="n">
-        <v>480515.2011092095</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="E2" t="n">
-        <v>318294.8078151837</v>
+        <v>337944.1802135991</v>
       </c>
       <c r="F2" t="n">
-        <v>318294.8078151835</v>
+        <v>337944.1802135989</v>
       </c>
       <c r="G2" t="n">
         <v>472257.4450052757</v>
       </c>
       <c r="H2" t="n">
-        <v>472257.4450052755</v>
+        <v>472257.4450052756</v>
       </c>
       <c r="I2" t="n">
         <v>472257.4450052755</v>
       </c>
       <c r="J2" t="n">
+        <v>472257.4450052755</v>
+      </c>
+      <c r="K2" t="n">
         <v>472257.4450052757</v>
       </c>
-      <c r="K2" t="n">
-        <v>472257.4450052756</v>
-      </c>
       <c r="L2" t="n">
-        <v>472257.4450052756</v>
+        <v>472257.4450052755</v>
       </c>
       <c r="M2" t="n">
-        <v>472257.4450052754</v>
+        <v>472257.445005275</v>
       </c>
       <c r="N2" t="n">
-        <v>472257.4450052757</v>
+        <v>472257.4450052755</v>
       </c>
       <c r="O2" t="n">
-        <v>318294.8078151837</v>
+        <v>337944.1802135989</v>
       </c>
       <c r="P2" t="n">
-        <v>318294.8078151837</v>
+        <v>337944.1802135991</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
-        <v>72585.72331434046</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>64800.26407317354</v>
+        <v>134590.8833097748</v>
       </c>
       <c r="E3" t="n">
-        <v>237450.5378441403</v>
+        <v>260471.2211472385</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>165581.6979860293</v>
+        <v>144449.4511924623</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>7356.463848391613</v>
       </c>
       <c r="K3" t="n">
-        <v>57824.0095666407</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52797.10148583062</v>
+        <v>109660.1785009631</v>
       </c>
       <c r="M3" t="n">
-        <v>48711.76343690182</v>
+        <v>67925.65850574579</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316089.708358943</v>
+        <v>316086.6635713216</v>
       </c>
       <c r="C4" t="n">
-        <v>279026.3512965406</v>
+        <v>316086.6635713216</v>
       </c>
       <c r="D4" t="n">
-        <v>244613.197331825</v>
+        <v>244596.4170699995</v>
       </c>
       <c r="E4" t="n">
-        <v>70430.74586023002</v>
+        <v>77075.10210478024</v>
       </c>
       <c r="F4" t="n">
-        <v>70430.74586022999</v>
+        <v>77075.10210478024</v>
       </c>
       <c r="G4" t="n">
-        <v>122613.2465786474</v>
+        <v>122588.7393482239</v>
       </c>
       <c r="H4" t="n">
-        <v>122613.2465786474</v>
+        <v>122588.7393482239</v>
       </c>
       <c r="I4" t="n">
-        <v>122613.2465786474</v>
+        <v>122588.7393482239</v>
       </c>
       <c r="J4" t="n">
-        <v>122613.2465786474</v>
+        <v>122588.7393482239</v>
       </c>
       <c r="K4" t="n">
-        <v>122613.2465786474</v>
+        <v>122588.7393482239</v>
       </c>
       <c r="L4" t="n">
-        <v>122613.2465786474</v>
+        <v>122588.7393482239</v>
       </c>
       <c r="M4" t="n">
-        <v>122613.2465786474</v>
+        <v>122588.7393482239</v>
       </c>
       <c r="N4" t="n">
-        <v>122613.2465786474</v>
+        <v>122588.7393482239</v>
       </c>
       <c r="O4" t="n">
-        <v>70430.74586023008</v>
+        <v>77075.10210478022</v>
       </c>
       <c r="P4" t="n">
-        <v>70430.74586023005</v>
+        <v>77075.10210478022</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>35337.07165607544</v>
       </c>
       <c r="C5" t="n">
-        <v>48997.27720475187</v>
+        <v>35337.07165607544</v>
       </c>
       <c r="D5" t="n">
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>44797.1234772162</v>
+        <v>49484.86853823331</v>
       </c>
       <c r="F5" t="n">
-        <v>44797.1234772162</v>
+        <v>49484.86853823331</v>
       </c>
       <c r="G5" t="n">
         <v>81527.94507471543</v>
@@ -26499,7 +26499,7 @@
         <v>81527.94507471545</v>
       </c>
       <c r="L5" t="n">
-        <v>81527.94507471545</v>
+        <v>81527.94507471543</v>
       </c>
       <c r="M5" t="n">
         <v>81527.94507471543</v>
@@ -26508,10 +26508,10 @@
         <v>81527.94507471543</v>
       </c>
       <c r="O5" t="n">
-        <v>44797.12347721622</v>
+        <v>49484.86853823331</v>
       </c>
       <c r="P5" t="n">
-        <v>44797.12347721622</v>
+        <v>49484.86853823331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119665.99889355</v>
+        <v>119669.0436811714</v>
       </c>
       <c r="C6" t="n">
-        <v>79905.84929357644</v>
+        <v>129091.4658818123</v>
       </c>
       <c r="D6" t="n">
-        <v>109421.0254339827</v>
+        <v>39647.18645920671</v>
       </c>
       <c r="E6" t="n">
-        <v>-34383.59936640289</v>
+        <v>-53407.34554318653</v>
       </c>
       <c r="F6" t="n">
-        <v>203066.9384777374</v>
+        <v>207063.8756040517</v>
       </c>
       <c r="G6" t="n">
-        <v>102534.5553658836</v>
+        <v>123441.0743564216</v>
       </c>
       <c r="H6" t="n">
-        <v>268116.2533519127</v>
+        <v>267890.5255488838</v>
       </c>
       <c r="I6" t="n">
-        <v>268116.2533519127</v>
+        <v>267890.5255488837</v>
       </c>
       <c r="J6" t="n">
-        <v>260759.7895035212</v>
+        <v>260534.061700492</v>
       </c>
       <c r="K6" t="n">
-        <v>210292.243785272</v>
+        <v>267890.5255488838</v>
       </c>
       <c r="L6" t="n">
-        <v>215319.1518660821</v>
+        <v>158230.3470479205</v>
       </c>
       <c r="M6" t="n">
-        <v>219404.4899150108</v>
+        <v>199964.8670431374</v>
       </c>
       <c r="N6" t="n">
-        <v>268116.2533519128</v>
+        <v>267890.5255488837</v>
       </c>
       <c r="O6" t="n">
-        <v>203066.9384777374</v>
+        <v>207063.8756040517</v>
       </c>
       <c r="P6" t="n">
-        <v>203066.9384777374</v>
+        <v>207063.8756040519</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>28.11631013281968</v>
       </c>
       <c r="C4" t="n">
-        <v>252.7907434992083</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="D4" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>656.8693341679918</v>
+        <v>733.97040425051</v>
       </c>
       <c r="F4" t="n">
-        <v>656.8693341679918</v>
+        <v>733.97040425051</v>
       </c>
       <c r="G4" t="n">
         <v>1260.994689390019</v>
@@ -26828,10 +26828,10 @@
         <v>1260.994689390019</v>
       </c>
       <c r="O4" t="n">
-        <v>656.8693341679922</v>
+        <v>733.97040425051</v>
       </c>
       <c r="P4" t="n">
-        <v>656.8693341679922</v>
+        <v>733.97040425051</v>
       </c>
     </row>
   </sheetData>
@@ -27014,19 +27014,19 @@
         <v>28.11631013281968</v>
       </c>
       <c r="C4" t="n">
-        <v>224.6744333663886</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>208.6091622611259</v>
+        <v>433.2835956275145</v>
       </c>
       <c r="E4" t="n">
-        <v>195.4694284076576</v>
+        <v>272.5704984901758</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>604.1253552220269</v>
+        <v>527.0242851395087</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>28.11631013282022</v>
       </c>
       <c r="K4" t="n">
-        <v>224.6744333663886</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>208.6091622611259</v>
+        <v>433.2835956275139</v>
       </c>
       <c r="M4" t="n">
-        <v>195.4694284076572</v>
+        <v>272.5704984901759</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>28.11631013281968</v>
       </c>
       <c r="K4" t="n">
-        <v>224.6744333663886</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>208.6091622611259</v>
+        <v>433.2835956275145</v>
       </c>
       <c r="M4" t="n">
-        <v>195.4694284076576</v>
+        <v>272.5704984901758</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>604.1253552220269</v>
+        <v>527.0242851395087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27469,13 +27469,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>67.94452604893732</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>24.72602217249382</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.39469483153834</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>154.80420398674</v>
+        <v>158.1556681545721</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>174.8070973393067</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>133.726262638184</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>110.1796496274208</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>133.5672950116773</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>142.0268463503655</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -27557,7 +27557,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>74.00603661213921</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -27593,16 +27593,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>252.6177580497112</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>250.7780425852317</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>243.9875696563924</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>212.0219474558332</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27618,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>265.2870777104045</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,10 +27627,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>168.0821964932854</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>147.5049282872375</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27678,7 +27678,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>139.6366927034483</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27697,22 +27697,22 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>88.21453431485057</v>
       </c>
       <c r="D6" t="n">
-        <v>86.16138555981942</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>75.53860425697246</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>67.94452604893732</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>161.8425727710037</v>
+        <v>133.726262638184</v>
       </c>
       <c r="Y6" t="n">
         <v>138.2959597602405</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -27785,7 +27785,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>15.64525898108934</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -27794,7 +27794,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>70.65457244430709</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>212.7896441635393</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>249.2662938818791</v>
       </c>
       <c r="V7" t="n">
-        <v>26.10360921884308</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>215.3734116236654</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>351.2742405590017</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>258.4978630555177</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>194.2009396936686</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>15.4837455100712</v>
       </c>
     </row>
     <row r="11">
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="N2" t="n">
-        <v>28.11631013281968</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="O2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>28.11631013281968</v>
       </c>
       <c r="L3" t="n">
+        <v>19.45843602451198</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>19.45843602451199</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34868,16 +34868,16 @@
         <v>28.11631013281968</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O4" t="n">
         <v>26.98029760220071</v>
       </c>
       <c r="P4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K5" t="n">
-        <v>252.7907434992083</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="L5" t="n">
-        <v>242.5769760850989</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O5" t="n">
-        <v>252.7907434992083</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="P5" t="n">
-        <v>252.7907434992083</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>235.0551145074101</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>252.7907434992083</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="P6" t="n">
-        <v>252.7907434992083</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>252.7907434992083</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>56.22196753467468</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="M7" t="n">
-        <v>252.7907434992083</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>252.7907434992083</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O7" t="n">
-        <v>252.7907434992083</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>76.49136530850691</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>77.9459274203145</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>461.3999057603342</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>358.2720417115361</v>
+        <v>269.6796503957549</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35348,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.4093672264672</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K11" t="n">
         <v>78.22600314077711</v>
       </c>
       <c r="L11" t="n">
-        <v>656.8693341679918</v>
+        <v>733.97040425051</v>
       </c>
       <c r="M11" t="n">
-        <v>656.8693341679918</v>
+        <v>733.97040425051</v>
       </c>
       <c r="N11" t="n">
-        <v>656.8693341679918</v>
+        <v>134.1282463182494</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4949136479586</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P11" t="n">
         <v>91.28869553235688</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R11" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24.02992090106073</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J12" t="n">
-        <v>319.7412849090522</v>
+        <v>49.75606891331267</v>
       </c>
       <c r="K12" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L12" t="n">
         <v>81.59083389768524</v>
       </c>
       <c r="M12" t="n">
-        <v>656.8693341679918</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N12" t="n">
         <v>103.3590622089598</v>
@@ -35509,7 +35509,7 @@
         <v>69.78685138383</v>
       </c>
       <c r="Q12" t="n">
-        <v>296.7274824222395</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R12" t="n">
         <v>112.6169711212452</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K14" t="n">
-        <v>287.8789368182431</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L14" t="n">
-        <v>656.8693341679918</v>
+        <v>733.97040425051</v>
       </c>
       <c r="M14" t="n">
-        <v>656.8693341679918</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N14" t="n">
         <v>122.6184024732711</v>
       </c>
       <c r="O14" t="n">
-        <v>656.8693341679918</v>
+        <v>585.3793933130577</v>
       </c>
       <c r="P14" t="n">
         <v>91.28869553235688</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R14" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J15" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K15" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480338</v>
       </c>
       <c r="L15" t="n">
         <v>81.59083389768524</v>
@@ -35740,7 +35740,7 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O15" t="n">
-        <v>439.7695990971989</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P15" t="n">
         <v>69.78685138383</v>
@@ -35895,13 +35895,13 @@
         <v>1171.782312420758</v>
       </c>
       <c r="N17" t="n">
-        <v>1146.010205597314</v>
+        <v>283.9037374824587</v>
       </c>
       <c r="O17" t="n">
-        <v>113.5962117678778</v>
+        <v>1004.668635922702</v>
       </c>
       <c r="P17" t="n">
-        <v>120.2546515723254</v>
+        <v>91.28869553235688</v>
       </c>
       <c r="Q17" t="n">
         <v>60.64686578433751</v>
@@ -35962,16 +35962,16 @@
         <v>0.3356725733720047</v>
       </c>
       <c r="J18" t="n">
-        <v>24.68826221249551</v>
+        <v>156.2767762718028</v>
       </c>
       <c r="K18" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L18" t="n">
-        <v>949.3572419077797</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M18" t="n">
-        <v>472.6415324432631</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N18" t="n">
         <v>103.3590622089598</v>
@@ -35983,7 +35983,7 @@
         <v>69.78685138383</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R18" t="n">
         <v>6.096263762754479</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>442.3237049607332</v>
+        <v>46.63762545808047</v>
       </c>
       <c r="K20" t="n">
         <v>836.7262685573027</v>
       </c>
       <c r="L20" t="n">
-        <v>334.9305589213671</v>
+        <v>1080.430623536228</v>
       </c>
       <c r="M20" t="n">
         <v>1171.782312420758</v>
@@ -36138,13 +36138,13 @@
         <v>1004.668635922702</v>
       </c>
       <c r="P20" t="n">
-        <v>844.2976726536263</v>
+        <v>151.4430319000196</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R20" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>319.7412849090522</v>
       </c>
       <c r="K21" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L21" t="n">
         <v>81.59083389768524</v>
       </c>
       <c r="M21" t="n">
-        <v>123.7170906492537</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N21" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O21" t="n">
-        <v>1012.543987591052</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P21" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.45685451960989</v>
+        <v>260.0524918257569</v>
       </c>
       <c r="R21" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>46.63762545808047</v>
       </c>
       <c r="K23" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L23" t="n">
         <v>1080.430623536228</v>
       </c>
       <c r="M23" t="n">
-        <v>1171.782312420758</v>
+        <v>705.3619238085546</v>
       </c>
       <c r="N23" t="n">
         <v>1146.010205597314</v>
@@ -36378,10 +36378,10 @@
         <v>91.28869553235688</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.9503200858815</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R23" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>24.02992090106073</v>
       </c>
       <c r="J24" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K24" t="n">
         <v>55.02461586202807</v>
       </c>
       <c r="L24" t="n">
-        <v>949.3572419077797</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M24" t="n">
         <v>98.38991848272941</v>
@@ -36451,16 +36451,16 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O24" t="n">
-        <v>441.4635261163505</v>
+        <v>416.0753507695105</v>
       </c>
       <c r="P24" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R24" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K26" t="n">
         <v>78.22600314077711</v>
@@ -36606,13 +36606,13 @@
         <v>1171.782312420758</v>
       </c>
       <c r="N26" t="n">
-        <v>1146.010205597314</v>
+        <v>289.3950257777163</v>
       </c>
       <c r="O26" t="n">
         <v>1004.668635922702</v>
       </c>
       <c r="P26" t="n">
-        <v>383.3685723366813</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q26" t="n">
         <v>60.64686578433751</v>
@@ -36673,31 +36673,31 @@
         <v>0.3356725733720047</v>
       </c>
       <c r="J27" t="n">
-        <v>24.68826221249551</v>
+        <v>49.75606891331271</v>
       </c>
       <c r="K27" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L27" t="n">
         <v>81.59083389768524</v>
       </c>
       <c r="M27" t="n">
-        <v>418.7701133458108</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N27" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O27" t="n">
-        <v>1012.543987591052</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P27" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q27" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R27" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K29" t="n">
-        <v>836.7262685573027</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L29" t="n">
-        <v>103.1033814881739</v>
+        <v>1080.430623536228</v>
       </c>
       <c r="M29" t="n">
         <v>1171.782312420758</v>
       </c>
       <c r="N29" t="n">
-        <v>1146.010205597314</v>
+        <v>289.3950257777163</v>
       </c>
       <c r="O29" t="n">
         <v>1004.668635922702</v>
       </c>
       <c r="P29" t="n">
-        <v>91.28869553235688</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q29" t="n">
-        <v>175.8676397175373</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R29" t="n">
         <v>21.25863298380406</v>
@@ -36910,10 +36910,10 @@
         <v>0.3356725733720047</v>
       </c>
       <c r="J30" t="n">
-        <v>24.68826221249551</v>
+        <v>156.2767762718032</v>
       </c>
       <c r="K30" t="n">
-        <v>375.4048107251094</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L30" t="n">
         <v>81.59083389768524</v>
@@ -36925,13 +36925,13 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O30" t="n">
-        <v>1012.543987591052</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P30" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q30" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R30" t="n">
         <v>6.096263762754479</v>
@@ -37071,25 +37071,25 @@
         <v>46.63762545808047</v>
       </c>
       <c r="K32" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L32" t="n">
         <v>1080.430623536228</v>
       </c>
       <c r="M32" t="n">
-        <v>1171.782312420758</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N32" t="n">
         <v>1146.010205597314</v>
       </c>
       <c r="O32" t="n">
-        <v>1004.668635922702</v>
+        <v>340.2838604182808</v>
       </c>
       <c r="P32" t="n">
-        <v>91.28869553235688</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q32" t="n">
-        <v>352.726742588662</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R32" t="n">
         <v>21.25863298380406</v>
@@ -37147,16 +37147,16 @@
         <v>24.02992090106073</v>
       </c>
       <c r="J33" t="n">
-        <v>319.7412849090522</v>
+        <v>24.68826221249551</v>
       </c>
       <c r="K33" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L33" t="n">
         <v>81.59083389768524</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.660669429113</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N33" t="n">
         <v>103.3590622089598</v>
@@ -37165,13 +37165,13 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P33" t="n">
-        <v>69.78685138383</v>
+        <v>562.7412630588449</v>
       </c>
       <c r="Q33" t="n">
         <v>38.45685451960989</v>
       </c>
       <c r="R33" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K35" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L35" t="n">
-        <v>976.8244208378978</v>
+        <v>619.5923231476447</v>
       </c>
       <c r="M35" t="n">
-        <v>1171.782312420758</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N35" t="n">
         <v>1146.010205597314</v>
@@ -37326,10 +37326,10 @@
         <v>91.28869553235688</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R35" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J36" t="n">
         <v>24.68826221249551</v>
       </c>
       <c r="K36" t="n">
-        <v>55.02461586202807</v>
+        <v>528.1455108875143</v>
       </c>
       <c r="L36" t="n">
         <v>81.59083389768524</v>
@@ -37396,19 +37396,19 @@
         <v>98.38991848272941</v>
       </c>
       <c r="N36" t="n">
-        <v>1225.020218172875</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O36" t="n">
-        <v>104.7423191317278</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P36" t="n">
-        <v>69.78685138383</v>
+        <v>814.9897300012829</v>
       </c>
       <c r="Q36" t="n">
         <v>38.45685451960989</v>
       </c>
       <c r="R36" t="n">
-        <v>112.6169711212452</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K38" t="n">
-        <v>836.7262685573027</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L38" t="n">
-        <v>103.1033814881739</v>
+        <v>1080.430623536228</v>
       </c>
       <c r="M38" t="n">
-        <v>119.9206440475296</v>
+        <v>687.9654350782453</v>
       </c>
       <c r="N38" t="n">
-        <v>909.4901701355157</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O38" t="n">
         <v>1004.668635922702</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>24.02992090106073</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J39" t="n">
-        <v>319.7412849090522</v>
+        <v>24.68826221249551</v>
       </c>
       <c r="K39" t="n">
         <v>673.8732704714621</v>
@@ -37639,13 +37639,13 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P39" t="n">
-        <v>69.78685138383</v>
+        <v>692.956218745024</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.358243498068</v>
+        <v>38.45685451960989</v>
       </c>
       <c r="R39" t="n">
-        <v>112.6169711212452</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>442.3237049607332</v>
+        <v>46.63762545808047</v>
       </c>
       <c r="K41" t="n">
-        <v>78.22600314077711</v>
+        <v>733.97040425051</v>
       </c>
       <c r="L41" t="n">
-        <v>103.1033814881739</v>
+        <v>733.97040425051</v>
       </c>
       <c r="M41" t="n">
-        <v>656.8693341679922</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N41" t="n">
-        <v>656.8693341679922</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O41" t="n">
-        <v>490.3512093279031</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P41" t="n">
-        <v>91.28869553235688</v>
+        <v>733.97040425051</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.64686578433751</v>
+        <v>280.2835176512394</v>
       </c>
       <c r="R41" t="n">
         <v>21.25863298380406</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J42" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K42" t="n">
-        <v>656.8693341679922</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L42" t="n">
         <v>81.59083389768524</v>
       </c>
       <c r="M42" t="n">
-        <v>656.8693341679922</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N42" t="n">
         <v>103.3590622089598</v>
@@ -37876,10 +37876,10 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P42" t="n">
-        <v>151.4807393632318</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q42" t="n">
-        <v>38.45685451960989</v>
+        <v>342.878950856559</v>
       </c>
       <c r="R42" t="n">
         <v>6.096263762754479</v>
@@ -37958,7 +37958,7 @@
         <v>342.1511628038405</v>
       </c>
       <c r="Q43" t="n">
-        <v>161.9425773588879</v>
+        <v>161.942577358885</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K44" t="n">
-        <v>656.8693341679922</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L44" t="n">
-        <v>435.465979715705</v>
+        <v>125.1060556128558</v>
       </c>
       <c r="M44" t="n">
-        <v>656.8693341679922</v>
+        <v>733.97040425051</v>
       </c>
       <c r="N44" t="n">
         <v>122.6184024732711</v>
       </c>
       <c r="O44" t="n">
-        <v>113.5962117678778</v>
+        <v>733.97040425051</v>
       </c>
       <c r="P44" t="n">
         <v>91.28869553235688</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R44" t="n">
         <v>21.25863298380406</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>24.02992090106073</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J45" t="n">
-        <v>24.68826221249551</v>
+        <v>49.75606891331267</v>
       </c>
       <c r="K45" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L45" t="n">
-        <v>221.251271454576</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M45" t="n">
         <v>98.38991848272941</v>
@@ -38113,13 +38113,13 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P45" t="n">
-        <v>656.8693341679922</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q45" t="n">
         <v>530.0377078214968</v>
       </c>
       <c r="R45" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>86.491421792474</v>
+        <v>86.49142179247275</v>
       </c>
       <c r="K46" t="n">
         <v>275.5175188526359</v>
